--- a/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7924396602020511</v>
+        <v>0.7924396602020519</v>
       </c>
       <c r="D2">
-        <v>0.8044266585399844</v>
+        <v>0.8044266585399847</v>
       </c>
       <c r="E2">
-        <v>0.8234802257161927</v>
+        <v>0.8234802257161932</v>
       </c>
       <c r="F2">
-        <v>0.7995424459941624</v>
+        <v>0.7995424459941629</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.012570000223378</v>
       </c>
       <c r="J2">
-        <v>0.8232777389322988</v>
+        <v>0.8232777389322993</v>
       </c>
       <c r="K2">
-        <v>0.8195044501478033</v>
+        <v>0.8195044501478039</v>
       </c>
       <c r="L2">
-        <v>0.8381043738245909</v>
+        <v>0.8381043738245912</v>
       </c>
       <c r="M2">
-        <v>0.8147412231902879</v>
+        <v>0.8147412231902882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8511220522421005</v>
+        <v>0.8511220522420998</v>
       </c>
       <c r="D3">
-        <v>0.8612566952628453</v>
+        <v>0.8612566952628447</v>
       </c>
       <c r="E3">
-        <v>0.8746879871172448</v>
+        <v>0.8746879871172444</v>
       </c>
       <c r="F3">
-        <v>0.8582243850260348</v>
+        <v>0.8582243850260343</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.022404281877667</v>
       </c>
       <c r="J3">
-        <v>0.8766972901443941</v>
+        <v>0.8766972901443935</v>
       </c>
       <c r="K3">
-        <v>0.8740377925865466</v>
+        <v>0.8740377925865457</v>
       </c>
       <c r="L3">
-        <v>0.8872224156666709</v>
+        <v>0.8872224156666704</v>
       </c>
       <c r="M3">
-        <v>0.8710625677660107</v>
+        <v>0.8710625677660101</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.87896661798844</v>
+        <v>0.8789666179884296</v>
       </c>
       <c r="D4">
-        <v>0.8882826652606343</v>
+        <v>0.8882826652606238</v>
       </c>
       <c r="E4">
-        <v>0.89906724713865</v>
+        <v>0.8990672471386407</v>
       </c>
       <c r="F4">
-        <v>0.8861239340318163</v>
+        <v>0.8861239340318062</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027123989065226</v>
+        <v>1.027123989065224</v>
       </c>
       <c r="J4">
-        <v>0.9020700766377746</v>
+        <v>0.9020700766377647</v>
       </c>
       <c r="K4">
-        <v>0.8999468747841514</v>
+        <v>0.8999468747841413</v>
       </c>
       <c r="L4">
-        <v>0.9105585959951198</v>
+        <v>0.9105585959951108</v>
       </c>
       <c r="M4">
-        <v>0.8978233945025673</v>
+        <v>0.8978233945025572</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8893390699881969</v>
+        <v>0.8893390699881948</v>
       </c>
       <c r="D5">
-        <v>0.8983585918625586</v>
+        <v>0.8983585918625565</v>
       </c>
       <c r="E5">
-        <v>0.9081599395652876</v>
+        <v>0.9081599395652861</v>
       </c>
       <c r="F5">
-        <v>0.8965264247439424</v>
+        <v>0.8965264247439403</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.028883710164938</v>
       </c>
       <c r="J5">
-        <v>0.9115222226165159</v>
+        <v>0.9115222226165138</v>
       </c>
       <c r="K5">
-        <v>0.909600733834668</v>
+        <v>0.9096007338346662</v>
       </c>
       <c r="L5">
-        <v>0.9192531659035452</v>
+        <v>0.9192531659035436</v>
       </c>
       <c r="M5">
-        <v>0.9077968648931972</v>
+        <v>0.9077968648931956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8910179815328826</v>
+        <v>0.8910179815328829</v>
       </c>
       <c r="D6">
-        <v>0.8999899078423587</v>
+        <v>0.899989907842359</v>
       </c>
       <c r="E6">
-        <v>0.9096322294620655</v>
+        <v>0.9096322294620656</v>
       </c>
       <c r="F6">
-        <v>0.8982107016390555</v>
+        <v>0.8982107016390558</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029168448392432</v>
+        <v>1.029168448392433</v>
       </c>
       <c r="J6">
-        <v>0.9130521136678245</v>
+        <v>0.9130521136678246</v>
       </c>
       <c r="K6">
-        <v>0.911163388908424</v>
+        <v>0.9111633889084244</v>
       </c>
       <c r="L6">
-        <v>0.9206604980122189</v>
+        <v>0.9206604980122193</v>
       </c>
       <c r="M6">
-        <v>0.9094114121085333</v>
+        <v>0.9094114121085337</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8791096953083628</v>
+        <v>0.879109695308365</v>
       </c>
       <c r="D7">
-        <v>0.8884216227254929</v>
+        <v>0.8884216227254949</v>
       </c>
       <c r="E7">
-        <v>0.8991926327019543</v>
+        <v>0.8991926327019564</v>
       </c>
       <c r="F7">
-        <v>0.8862673896746692</v>
+        <v>0.8862673896746709</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.027148265512947</v>
       </c>
       <c r="J7">
-        <v>0.9022004616544809</v>
+        <v>0.9022004616544831</v>
       </c>
       <c r="K7">
-        <v>0.9000800343081977</v>
+        <v>0.9000800343081996</v>
       </c>
       <c r="L7">
-        <v>0.9106785265820578</v>
+        <v>0.9106785265820599</v>
       </c>
       <c r="M7">
-        <v>0.8979609521285378</v>
+        <v>0.8979609521285397</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D8">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E8">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F8">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J8">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K8">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L8">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M8">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D9">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E9">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F9">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J9">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K9">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L9">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M9">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D10">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E10">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F10">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J10">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K10">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L10">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M10">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D11">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E11">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F11">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J11">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K11">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L11">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M11">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D12">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E12">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F12">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J12">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K12">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L12">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M12">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D13">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E13">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F13">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J13">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K13">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L13">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M13">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D14">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E14">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F14">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J14">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K14">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L14">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M14">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D15">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E15">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F15">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J15">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K15">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L15">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M15">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D16">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E16">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F16">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J16">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K16">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L16">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M16">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D17">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E17">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F17">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J17">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K17">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L17">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M17">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D18">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E18">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F18">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J18">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K18">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L18">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M18">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D19">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E19">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F19">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J19">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K19">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L19">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M19">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D20">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E20">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F20">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J20">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K20">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L20">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M20">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D21">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E21">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F21">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J21">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K21">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L21">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M21">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D22">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E22">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F22">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J22">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K22">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L22">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M22">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D23">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E23">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F23">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J23">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K23">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L23">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M23">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D24">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E24">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F24">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J24">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K24">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L24">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M24">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.815537752711275</v>
+        <v>0.8155377527112756</v>
       </c>
       <c r="D25">
-        <v>0.826772815726754</v>
+        <v>0.8267728157267542</v>
       </c>
       <c r="E25">
-        <v>0.8436051191063494</v>
+        <v>0.8436051191063496</v>
       </c>
       <c r="F25">
-        <v>0.8226219317619734</v>
+        <v>0.8226219317619743</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J25">
-        <v>0.8442906555451761</v>
+        <v>0.8442906555451767</v>
       </c>
       <c r="K25">
-        <v>0.8409539229323136</v>
+        <v>0.840953922932314</v>
       </c>
       <c r="L25">
-        <v>0.8574230734450548</v>
+        <v>0.8574230734450551</v>
       </c>
       <c r="M25">
-        <v>0.8368956386787263</v>
+        <v>0.8368956386787273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7924396602020519</v>
+        <v>0.7924396602020511</v>
       </c>
       <c r="D2">
-        <v>0.8044266585399847</v>
+        <v>0.8044266585399844</v>
       </c>
       <c r="E2">
-        <v>0.8234802257161932</v>
+        <v>0.8234802257161927</v>
       </c>
       <c r="F2">
-        <v>0.7995424459941629</v>
+        <v>0.7995424459941624</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.012570000223378</v>
       </c>
       <c r="J2">
-        <v>0.8232777389322993</v>
+        <v>0.8232777389322988</v>
       </c>
       <c r="K2">
-        <v>0.8195044501478039</v>
+        <v>0.8195044501478033</v>
       </c>
       <c r="L2">
-        <v>0.8381043738245912</v>
+        <v>0.8381043738245909</v>
       </c>
       <c r="M2">
-        <v>0.8147412231902882</v>
+        <v>0.8147412231902879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.8511220522420998</v>
+        <v>0.8511220522421005</v>
       </c>
       <c r="D3">
-        <v>0.8612566952628447</v>
+        <v>0.8612566952628453</v>
       </c>
       <c r="E3">
-        <v>0.8746879871172444</v>
+        <v>0.8746879871172448</v>
       </c>
       <c r="F3">
-        <v>0.8582243850260343</v>
+        <v>0.8582243850260348</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.022404281877667</v>
       </c>
       <c r="J3">
-        <v>0.8766972901443935</v>
+        <v>0.8766972901443941</v>
       </c>
       <c r="K3">
-        <v>0.8740377925865457</v>
+        <v>0.8740377925865466</v>
       </c>
       <c r="L3">
-        <v>0.8872224156666704</v>
+        <v>0.8872224156666709</v>
       </c>
       <c r="M3">
-        <v>0.8710625677660101</v>
+        <v>0.8710625677660107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8789666179884296</v>
+        <v>0.87896661798844</v>
       </c>
       <c r="D4">
-        <v>0.8882826652606238</v>
+        <v>0.8882826652606343</v>
       </c>
       <c r="E4">
-        <v>0.8990672471386407</v>
+        <v>0.89906724713865</v>
       </c>
       <c r="F4">
-        <v>0.8861239340318062</v>
+        <v>0.8861239340318163</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027123989065224</v>
+        <v>1.027123989065226</v>
       </c>
       <c r="J4">
-        <v>0.9020700766377647</v>
+        <v>0.9020700766377746</v>
       </c>
       <c r="K4">
-        <v>0.8999468747841413</v>
+        <v>0.8999468747841514</v>
       </c>
       <c r="L4">
-        <v>0.9105585959951108</v>
+        <v>0.9105585959951198</v>
       </c>
       <c r="M4">
-        <v>0.8978233945025572</v>
+        <v>0.8978233945025673</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8893390699881948</v>
+        <v>0.8893390699881969</v>
       </c>
       <c r="D5">
-        <v>0.8983585918625565</v>
+        <v>0.8983585918625586</v>
       </c>
       <c r="E5">
-        <v>0.9081599395652861</v>
+        <v>0.9081599395652876</v>
       </c>
       <c r="F5">
-        <v>0.8965264247439403</v>
+        <v>0.8965264247439424</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.028883710164938</v>
       </c>
       <c r="J5">
-        <v>0.9115222226165138</v>
+        <v>0.9115222226165159</v>
       </c>
       <c r="K5">
-        <v>0.9096007338346662</v>
+        <v>0.909600733834668</v>
       </c>
       <c r="L5">
-        <v>0.9192531659035436</v>
+        <v>0.9192531659035452</v>
       </c>
       <c r="M5">
-        <v>0.9077968648931956</v>
+        <v>0.9077968648931972</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8910179815328829</v>
+        <v>0.8910179815328826</v>
       </c>
       <c r="D6">
-        <v>0.899989907842359</v>
+        <v>0.8999899078423587</v>
       </c>
       <c r="E6">
-        <v>0.9096322294620656</v>
+        <v>0.9096322294620655</v>
       </c>
       <c r="F6">
-        <v>0.8982107016390558</v>
+        <v>0.8982107016390555</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029168448392433</v>
+        <v>1.029168448392432</v>
       </c>
       <c r="J6">
-        <v>0.9130521136678246</v>
+        <v>0.9130521136678245</v>
       </c>
       <c r="K6">
-        <v>0.9111633889084244</v>
+        <v>0.911163388908424</v>
       </c>
       <c r="L6">
-        <v>0.9206604980122193</v>
+        <v>0.9206604980122189</v>
       </c>
       <c r="M6">
-        <v>0.9094114121085337</v>
+        <v>0.9094114121085333</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.879109695308365</v>
+        <v>0.8791096953083628</v>
       </c>
       <c r="D7">
-        <v>0.8884216227254949</v>
+        <v>0.8884216227254929</v>
       </c>
       <c r="E7">
-        <v>0.8991926327019564</v>
+        <v>0.8991926327019543</v>
       </c>
       <c r="F7">
-        <v>0.8862673896746709</v>
+        <v>0.8862673896746692</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.027148265512947</v>
       </c>
       <c r="J7">
-        <v>0.9022004616544831</v>
+        <v>0.9022004616544809</v>
       </c>
       <c r="K7">
-        <v>0.9000800343081996</v>
+        <v>0.9000800343081977</v>
       </c>
       <c r="L7">
-        <v>0.9106785265820599</v>
+        <v>0.9106785265820578</v>
       </c>
       <c r="M7">
-        <v>0.8979609521285397</v>
+        <v>0.8979609521285378</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D8">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E8">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F8">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J8">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K8">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L8">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M8">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D9">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E9">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F9">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J9">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K9">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L9">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M9">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D10">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E10">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F10">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J10">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K10">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L10">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M10">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D11">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E11">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F11">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J11">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K11">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L11">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M11">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D12">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E12">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F12">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J12">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K12">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L12">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M12">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D13">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E13">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F13">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J13">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K13">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L13">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M13">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D14">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E14">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F14">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J14">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K14">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L14">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M14">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D15">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E15">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F15">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J15">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K15">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L15">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M15">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D16">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E16">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F16">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J16">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K16">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L16">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M16">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D17">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E17">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F17">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J17">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K17">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L17">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M17">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D18">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E18">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F18">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J18">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K18">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L18">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M18">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D19">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E19">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F19">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J19">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K19">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L19">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M19">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D20">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E20">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F20">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J20">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K20">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L20">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M20">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D21">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E21">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F21">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J21">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K21">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L21">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M21">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D22">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E22">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F22">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J22">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K22">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L22">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M22">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D23">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E23">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F23">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J23">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K23">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L23">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M23">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D24">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E24">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F24">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J24">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K24">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L24">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M24">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8155377527112756</v>
+        <v>0.815537752711275</v>
       </c>
       <c r="D25">
-        <v>0.8267728157267542</v>
+        <v>0.826772815726754</v>
       </c>
       <c r="E25">
-        <v>0.8436051191063496</v>
+        <v>0.8436051191063494</v>
       </c>
       <c r="F25">
-        <v>0.8226219317619743</v>
+        <v>0.8226219317619734</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.016413845289571</v>
       </c>
       <c r="J25">
-        <v>0.8442906555451767</v>
+        <v>0.8442906555451761</v>
       </c>
       <c r="K25">
-        <v>0.840953922932314</v>
+        <v>0.8409539229323136</v>
       </c>
       <c r="L25">
-        <v>0.8574230734450551</v>
+        <v>0.8574230734450548</v>
       </c>
       <c r="M25">
-        <v>0.8368956386787273</v>
+        <v>0.8368956386787263</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7924396602020511</v>
+        <v>0.8012945205728438</v>
       </c>
       <c r="D2">
-        <v>0.8044266585399844</v>
+        <v>0.8130895415715172</v>
       </c>
       <c r="E2">
-        <v>0.8234802257161927</v>
+        <v>0.8311759650736471</v>
       </c>
       <c r="F2">
-        <v>0.7995424459941624</v>
+        <v>0.8082830867268372</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.012570000223378</v>
+        <v>1.013885375447637</v>
       </c>
       <c r="J2">
-        <v>0.8232777389322988</v>
+        <v>0.8316277902779289</v>
       </c>
       <c r="K2">
-        <v>0.8195044501478033</v>
+        <v>0.8279575428621886</v>
       </c>
       <c r="L2">
-        <v>0.8381043738245909</v>
+        <v>0.8456247432862719</v>
       </c>
       <c r="M2">
-        <v>0.8147412231902879</v>
+        <v>0.8232667400707877</v>
+      </c>
+      <c r="N2">
+        <v>0.8328087971291642</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8511220522421005</v>
+        <v>0.858024423842624</v>
       </c>
       <c r="D3">
-        <v>0.8612566952628453</v>
+        <v>0.8680550907955331</v>
       </c>
       <c r="E3">
-        <v>0.8746879871172448</v>
+        <v>0.8807097009220431</v>
       </c>
       <c r="F3">
-        <v>0.8582243850260348</v>
+        <v>0.8650201659177861</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.022404281877667</v>
+        <v>1.023419269616135</v>
       </c>
       <c r="J3">
-        <v>0.8766972901443941</v>
+        <v>0.8833080906166821</v>
       </c>
       <c r="K3">
-        <v>0.8740377925865466</v>
+        <v>0.8807100913452375</v>
       </c>
       <c r="L3">
-        <v>0.8872224156666709</v>
+        <v>0.8931367073421216</v>
       </c>
       <c r="M3">
-        <v>0.8710625677660107</v>
+        <v>0.877731138969197</v>
+      </c>
+      <c r="N3">
+        <v>0.8845624894222118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.87896661798844</v>
+        <v>0.885347673732182</v>
       </c>
       <c r="D4">
-        <v>0.8882826652606343</v>
+        <v>0.8945842118072621</v>
       </c>
       <c r="E4">
-        <v>0.89906724713865</v>
+        <v>0.9046420272338341</v>
       </c>
       <c r="F4">
-        <v>0.8861239340318163</v>
+        <v>0.8923991078476879</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027123989065226</v>
+        <v>1.02805736358325</v>
       </c>
       <c r="J4">
-        <v>0.9020700766377746</v>
+        <v>0.90822054586358</v>
       </c>
       <c r="K4">
-        <v>0.8999468747841514</v>
+        <v>0.9061467680753987</v>
       </c>
       <c r="L4">
-        <v>0.9105585959951198</v>
+        <v>0.9160460857703047</v>
       </c>
       <c r="M4">
-        <v>0.8978233945025673</v>
+        <v>0.9039967044672645</v>
+      </c>
+      <c r="N4">
+        <v>0.9095103232130589</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8893390699881969</v>
+        <v>0.8955642035051902</v>
       </c>
       <c r="D5">
-        <v>0.8983585918625586</v>
+        <v>0.9045117189329706</v>
       </c>
       <c r="E5">
-        <v>0.9081599395652876</v>
+        <v>0.9136010963619234</v>
       </c>
       <c r="F5">
-        <v>0.8965264247439424</v>
+        <v>0.9026456602687395</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028883710164938</v>
+        <v>1.029792479407443</v>
       </c>
       <c r="J5">
-        <v>0.9115222226165159</v>
+        <v>0.917535743632555</v>
       </c>
       <c r="K5">
-        <v>0.909600733834668</v>
+        <v>0.9156598936840163</v>
       </c>
       <c r="L5">
-        <v>0.9192531659035452</v>
+        <v>0.9246134054790849</v>
       </c>
       <c r="M5">
-        <v>0.9077968648931972</v>
+        <v>0.9138221599125776</v>
+      </c>
+      <c r="N5">
+        <v>0.9188387496313339</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8910179815328826</v>
+        <v>0.8972194921404167</v>
       </c>
       <c r="D6">
-        <v>0.8999899078423587</v>
+        <v>0.9061205588528303</v>
       </c>
       <c r="E6">
-        <v>0.9096322294620655</v>
+        <v>0.9150531454446653</v>
       </c>
       <c r="F6">
-        <v>0.8982107016390555</v>
+        <v>0.9043062996664853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029168448392432</v>
+        <v>1.030073480652805</v>
       </c>
       <c r="J6">
-        <v>0.9130521136678245</v>
+        <v>0.9190449262153423</v>
       </c>
       <c r="K6">
-        <v>0.911163388908424</v>
+        <v>0.9172012574486554</v>
       </c>
       <c r="L6">
-        <v>0.9206604980122189</v>
+        <v>0.9260014812660126</v>
       </c>
       <c r="M6">
-        <v>0.9094114121085333</v>
+        <v>0.9154142887143296</v>
+      </c>
+      <c r="N6">
+        <v>0.9203500754264946</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8791096953083628</v>
+        <v>0.8854884770858277</v>
       </c>
       <c r="D7">
-        <v>0.8884216227254929</v>
+        <v>0.8947210039614822</v>
       </c>
       <c r="E7">
-        <v>0.8991926327019543</v>
+        <v>0.904765463777907</v>
       </c>
       <c r="F7">
-        <v>0.8862673896746692</v>
+        <v>0.8925402902126797</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027148265512947</v>
+        <v>1.028081281914397</v>
       </c>
       <c r="J7">
-        <v>0.9022004616544809</v>
+        <v>0.9083489306243061</v>
       </c>
       <c r="K7">
-        <v>0.9000800343081977</v>
+        <v>0.9062778728483996</v>
       </c>
       <c r="L7">
-        <v>0.9106785265820578</v>
+        <v>0.9161641588494913</v>
       </c>
       <c r="M7">
-        <v>0.8979609521285378</v>
+        <v>0.904132102961497</v>
+      </c>
+      <c r="N7">
+        <v>0.9096388902948709</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D8">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E8">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F8">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J8">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K8">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L8">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M8">
-        <v>0.8368956386787263</v>
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N8">
+        <v>0.8529900135885705</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D9">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E9">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F9">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J9">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K9">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L9">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M9">
-        <v>0.8368956386787263</v>
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N9">
+        <v>0.8529900135885705</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D10">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E10">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F10">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J10">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K10">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L10">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M10">
-        <v>0.8368956386787263</v>
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N10">
+        <v>0.8529900135885705</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D11">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E11">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F11">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J11">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K11">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L11">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M11">
-        <v>0.8368956386787263</v>
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N11">
+        <v>0.8529900135885705</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D12">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E12">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F12">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J12">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K12">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L12">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M12">
-        <v>0.8368956386787263</v>
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N12">
+        <v>0.8529900135885705</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D13">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E13">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F13">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J13">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K13">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L13">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M13">
-        <v>0.8368956386787263</v>
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N13">
+        <v>0.8529900135885705</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D14">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E14">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F14">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J14">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K14">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L14">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M14">
-        <v>0.8368956386787263</v>
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N14">
+        <v>0.8529900135885705</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D15">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E15">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F15">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J15">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K15">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L15">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M15">
-        <v>0.8368956386787263</v>
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N15">
+        <v>0.8529900135885705</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D16">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E16">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F16">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J16">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K16">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L16">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M16">
-        <v>0.8368956386787263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N16">
+        <v>0.8529900135885705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D17">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E17">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F17">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J17">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K17">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L17">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M17">
-        <v>0.8368956386787263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N17">
+        <v>0.8529900135885705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D18">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E18">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F18">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J18">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K18">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L18">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M18">
-        <v>0.8368956386787263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N18">
+        <v>0.8529900135885705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D19">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E19">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F19">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J19">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K19">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L19">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M19">
-        <v>0.8368956386787263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N19">
+        <v>0.8529900135885705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D20">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E20">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F20">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J20">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K20">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L20">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M20">
-        <v>0.8368956386787263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N20">
+        <v>0.8529900135885705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D21">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E21">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F21">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J21">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K21">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L21">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M21">
-        <v>0.8368956386787263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N21">
+        <v>0.8529900135885705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D22">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E22">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F22">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J22">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K22">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L22">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M22">
-        <v>0.8368956386787263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N22">
+        <v>0.8529900135885705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D23">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E23">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F23">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J23">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K23">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L23">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M23">
-        <v>0.8368956386787263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N23">
+        <v>0.8529900135885705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D24">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E24">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F24">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J24">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K24">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L24">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M24">
-        <v>0.8368956386787263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N24">
+        <v>0.8529900135885705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.815537752711275</v>
+        <v>0.8234288908171367</v>
       </c>
       <c r="D25">
-        <v>0.826772815726754</v>
+        <v>0.8345149915139608</v>
       </c>
       <c r="E25">
-        <v>0.8436051191063494</v>
+        <v>0.8504746584608851</v>
       </c>
       <c r="F25">
-        <v>0.8226219317619734</v>
+        <v>0.8304032497375869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.016413845289571</v>
+        <v>1.01758170159527</v>
       </c>
       <c r="J25">
-        <v>0.8442906555451761</v>
+        <v>0.8517803877374073</v>
       </c>
       <c r="K25">
-        <v>0.8409539229323136</v>
+        <v>0.848526648625364</v>
       </c>
       <c r="L25">
-        <v>0.8574230734450548</v>
+        <v>0.8641498528265648</v>
       </c>
       <c r="M25">
-        <v>0.8368956386787263</v>
+        <v>0.8445043761157078</v>
+      </c>
+      <c r="N25">
+        <v>0.8529900135885705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8012945205728438</v>
+        <v>0.753804535225122</v>
       </c>
       <c r="D2">
-        <v>0.8130895415715172</v>
+        <v>0.7741627598770247</v>
       </c>
       <c r="E2">
-        <v>0.8311759650736471</v>
+        <v>0.7848878803947954</v>
       </c>
       <c r="F2">
-        <v>0.8082830867268372</v>
+        <v>0.7865883123991896</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.013885375447637</v>
+        <v>1.02625869178571</v>
       </c>
       <c r="J2">
-        <v>0.8316277902779289</v>
+        <v>0.7870527216627595</v>
       </c>
       <c r="K2">
-        <v>0.8279575428621886</v>
+        <v>0.7900237232538082</v>
       </c>
       <c r="L2">
-        <v>0.8456247432862719</v>
+        <v>0.800461926624749</v>
       </c>
       <c r="M2">
-        <v>0.8232667400707877</v>
+        <v>0.8021178424144146</v>
       </c>
       <c r="N2">
-        <v>0.8328087971291642</v>
+        <v>0.7881704268037295</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.858024423842624</v>
+        <v>0.8529821229269975</v>
       </c>
       <c r="D3">
-        <v>0.8680550907955331</v>
+        <v>0.8695354157880831</v>
       </c>
       <c r="E3">
-        <v>0.8807097009220431</v>
+        <v>0.8719182346738814</v>
       </c>
       <c r="F3">
-        <v>0.8650201659177861</v>
+        <v>0.8790934555234061</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023419269616135</v>
+        <v>1.03357779652016</v>
       </c>
       <c r="J3">
-        <v>0.8833080906166821</v>
+        <v>0.8784781253188721</v>
       </c>
       <c r="K3">
-        <v>0.8807100913452375</v>
+        <v>0.8821632995714128</v>
       </c>
       <c r="L3">
-        <v>0.8931367073421216</v>
+        <v>0.8845027212709543</v>
       </c>
       <c r="M3">
-        <v>0.877731138969197</v>
+        <v>0.891549106854217</v>
       </c>
       <c r="N3">
-        <v>0.8845624894222118</v>
+        <v>0.8797256650196743</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.885347673732182</v>
+        <v>0.8895939875289297</v>
       </c>
       <c r="D4">
-        <v>0.8945842118072621</v>
+        <v>0.9048963072153721</v>
       </c>
       <c r="E4">
-        <v>0.9046420272338341</v>
+        <v>0.904221184284432</v>
       </c>
       <c r="F4">
-        <v>0.8923991078476879</v>
+        <v>0.9134745931713059</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02805736358325</v>
+        <v>1.036334222856916</v>
       </c>
       <c r="J4">
-        <v>0.90822054586358</v>
+        <v>0.9123159780212371</v>
       </c>
       <c r="K4">
-        <v>0.9061467680753987</v>
+        <v>0.9162964169885918</v>
       </c>
       <c r="L4">
-        <v>0.9160460857703047</v>
+        <v>0.9156317844087818</v>
       </c>
       <c r="M4">
-        <v>0.9039967044672645</v>
+        <v>0.9247431304911263</v>
       </c>
       <c r="N4">
-        <v>0.9095103232130589</v>
+        <v>0.9136115713541326</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8955642035051902</v>
+        <v>0.9026904787915648</v>
       </c>
       <c r="D5">
-        <v>0.9045117189329706</v>
+        <v>0.9175601737793535</v>
       </c>
       <c r="E5">
-        <v>0.9136010963619234</v>
+        <v>0.9157907801251622</v>
       </c>
       <c r="F5">
-        <v>0.9026456602687395</v>
+        <v>0.9257942370987551</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029792479407443</v>
+        <v>1.037321488520486</v>
       </c>
       <c r="J5">
-        <v>0.917535743632555</v>
+        <v>0.9244247481831718</v>
       </c>
       <c r="K5">
-        <v>0.9156598936840163</v>
+        <v>0.9285143715094492</v>
       </c>
       <c r="L5">
-        <v>0.9246134054790849</v>
+        <v>0.9267708702078297</v>
       </c>
       <c r="M5">
-        <v>0.9138221599125776</v>
+        <v>0.9366295897783368</v>
       </c>
       <c r="N5">
-        <v>0.9188387496313339</v>
+        <v>0.9257375373585925</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8972194921404167</v>
+        <v>0.9047898171502078</v>
       </c>
       <c r="D6">
-        <v>0.9061205588528303</v>
+        <v>0.9195908112342155</v>
       </c>
       <c r="E6">
-        <v>0.9150531454446653</v>
+        <v>0.9176459372826626</v>
       </c>
       <c r="F6">
-        <v>0.9043062996664853</v>
+        <v>0.9277699298110585</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030073480652805</v>
+        <v>1.03747967930986</v>
       </c>
       <c r="J6">
-        <v>0.9190449262153423</v>
+        <v>0.9263658661016746</v>
       </c>
       <c r="K6">
-        <v>0.9172012574486554</v>
+        <v>0.9304731564079849</v>
       </c>
       <c r="L6">
-        <v>0.9260014812660126</v>
+        <v>0.928556465152822</v>
       </c>
       <c r="M6">
-        <v>0.9154142887143296</v>
+        <v>0.9385353884065658</v>
       </c>
       <c r="N6">
-        <v>0.9203500754264946</v>
+        <v>0.927681411887189</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8854884770858277</v>
+        <v>0.8897762464774925</v>
       </c>
       <c r="D7">
-        <v>0.8947210039614822</v>
+        <v>0.9050724959956845</v>
       </c>
       <c r="E7">
-        <v>0.904765463777907</v>
+        <v>0.904382148680104</v>
       </c>
       <c r="F7">
-        <v>0.8925402902126797</v>
+        <v>0.9136459727268593</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028081281914397</v>
+        <v>1.036347964208559</v>
       </c>
       <c r="J7">
-        <v>0.9083489306243061</v>
+        <v>0.912484480706175</v>
       </c>
       <c r="K7">
-        <v>0.9062778728483996</v>
+        <v>0.916466426769958</v>
       </c>
       <c r="L7">
-        <v>0.9161641588494913</v>
+        <v>0.9157867975515959</v>
       </c>
       <c r="M7">
-        <v>0.904132102961497</v>
+        <v>0.9249085143461174</v>
       </c>
       <c r="N7">
-        <v>0.9096388902948709</v>
+        <v>0.9137803133322107</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D8">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E8">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F8">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J8">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K8">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L8">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M8">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N8">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D9">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E9">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F9">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J9">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K9">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L9">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M9">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N9">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D10">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E10">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F10">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J10">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K10">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L10">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M10">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N10">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D11">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E11">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F11">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J11">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K11">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L11">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M11">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N11">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D12">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E12">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F12">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J12">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K12">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L12">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M12">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N12">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D13">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E13">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F13">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J13">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K13">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L13">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M13">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N13">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D14">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E14">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F14">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J14">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K14">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L14">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M14">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N14">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D15">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E15">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F15">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J15">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K15">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L15">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M15">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N15">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D16">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E16">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F16">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J16">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K16">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L16">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M16">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N16">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D17">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E17">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F17">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J17">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K17">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L17">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M17">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N17">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D18">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E18">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F18">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J18">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K18">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L18">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M18">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N18">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D19">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E19">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F19">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J19">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K19">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L19">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M19">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N19">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D20">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E20">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F20">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J20">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K20">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L20">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M20">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N20">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D21">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E21">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F21">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J21">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K21">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L21">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M21">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N21">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D22">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E22">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F22">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J22">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K22">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L22">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M22">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N22">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D23">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E23">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F23">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J23">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K23">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L23">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M23">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N23">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D24">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E24">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F24">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J24">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K24">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L24">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M24">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N24">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8234288908171367</v>
+        <v>0.8000330102922349</v>
       </c>
       <c r="D25">
-        <v>0.8345149915139608</v>
+        <v>0.8185290729602216</v>
       </c>
       <c r="E25">
-        <v>0.8504746584608851</v>
+        <v>0.8253471978124043</v>
       </c>
       <c r="F25">
-        <v>0.8304032497375869</v>
+        <v>0.8295701145849625</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.01758170159527</v>
+        <v>1.029632146247378</v>
       </c>
       <c r="J25">
-        <v>0.8517803877374073</v>
+        <v>0.8296083386928096</v>
       </c>
       <c r="K25">
-        <v>0.848526648625364</v>
+        <v>0.8328953127570097</v>
       </c>
       <c r="L25">
-        <v>0.8641498528265648</v>
+        <v>0.8395599685007381</v>
       </c>
       <c r="M25">
-        <v>0.8445043761157078</v>
+        <v>0.8436895131969706</v>
       </c>
       <c r="N25">
-        <v>0.8529900135885705</v>
+        <v>0.83078647769116</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.753804535225122</v>
+        <v>1.035121145933515</v>
       </c>
       <c r="D2">
-        <v>0.7741627598770247</v>
+        <v>1.049318841926611</v>
       </c>
       <c r="E2">
-        <v>0.7848878803947954</v>
+        <v>1.045085471824597</v>
       </c>
       <c r="F2">
-        <v>0.7865883123991896</v>
+        <v>1.054544045570128</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02625869178571</v>
+        <v>1.052926929484579</v>
       </c>
       <c r="J2">
-        <v>0.7870527216627595</v>
+        <v>1.056299836753477</v>
       </c>
       <c r="K2">
-        <v>0.7900237232538082</v>
+        <v>1.060131326391986</v>
       </c>
       <c r="L2">
-        <v>0.800461926624749</v>
+        <v>1.055950493572627</v>
       </c>
       <c r="M2">
-        <v>0.8021178424144146</v>
+        <v>1.065292406903615</v>
       </c>
       <c r="N2">
-        <v>0.7881704268037295</v>
+        <v>1.057799903680952</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8529821229269975</v>
+        <v>1.044599878447632</v>
       </c>
       <c r="D3">
-        <v>0.8695354157880831</v>
+        <v>1.058259978785856</v>
       </c>
       <c r="E3">
-        <v>0.8719182346738814</v>
+        <v>1.053489007123603</v>
       </c>
       <c r="F3">
-        <v>0.8790934555234061</v>
+        <v>1.063677950655497</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03357779652016</v>
+        <v>1.055458318947371</v>
       </c>
       <c r="J3">
-        <v>0.8784781253188721</v>
+        <v>1.063944376229262</v>
       </c>
       <c r="K3">
-        <v>0.8821632995714128</v>
+        <v>1.068197971999662</v>
       </c>
       <c r="L3">
-        <v>0.8845027212709543</v>
+        <v>1.063480344523797</v>
       </c>
       <c r="M3">
-        <v>0.891549106854217</v>
+        <v>1.073556078539857</v>
       </c>
       <c r="N3">
-        <v>0.8797256650196743</v>
+        <v>1.065455299279633</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8895939875289297</v>
+        <v>1.050516391532271</v>
       </c>
       <c r="D4">
-        <v>0.9048963072153721</v>
+        <v>1.063846389181167</v>
       </c>
       <c r="E4">
-        <v>0.904221184284432</v>
+        <v>1.058739903274036</v>
       </c>
       <c r="F4">
-        <v>0.9134745931713059</v>
+        <v>1.069386778892939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036334222856916</v>
+        <v>1.057022953208084</v>
       </c>
       <c r="J4">
-        <v>0.9123159780212371</v>
+        <v>1.068710572092629</v>
       </c>
       <c r="K4">
-        <v>0.9162964169885918</v>
+        <v>1.073230792895387</v>
       </c>
       <c r="L4">
-        <v>0.9156317844087818</v>
+        <v>1.06817753971606</v>
       </c>
       <c r="M4">
-        <v>0.9247431304911263</v>
+        <v>1.078714127648796</v>
       </c>
       <c r="N4">
-        <v>0.9136115713541326</v>
+        <v>1.070228263687817</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9026904787915648</v>
+        <v>1.052955315737483</v>
       </c>
       <c r="D5">
-        <v>0.9175601737793535</v>
+        <v>1.066150458295746</v>
       </c>
       <c r="E5">
-        <v>0.9157907801251622</v>
+        <v>1.060905661432578</v>
       </c>
       <c r="F5">
-        <v>0.9257942370987551</v>
+        <v>1.071741811922293</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037321488520486</v>
+        <v>1.057664156299799</v>
       </c>
       <c r="J5">
-        <v>0.9244247481831718</v>
+        <v>1.070673930468378</v>
       </c>
       <c r="K5">
-        <v>0.9285143715094492</v>
+        <v>1.075304811529262</v>
       </c>
       <c r="L5">
-        <v>0.9267708702078297</v>
+        <v>1.070113066161613</v>
       </c>
       <c r="M5">
-        <v>0.9366295897783368</v>
+        <v>1.080840303028353</v>
       </c>
       <c r="N5">
-        <v>0.9257375373585925</v>
+        <v>1.072194410257659</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9047898171502078</v>
+        <v>1.053362080957629</v>
       </c>
       <c r="D6">
-        <v>0.9195908112342155</v>
+        <v>1.066534801702294</v>
       </c>
       <c r="E6">
-        <v>0.9176459372826626</v>
+        <v>1.06126693656522</v>
       </c>
       <c r="F6">
-        <v>0.9277699298110585</v>
+        <v>1.072134684508096</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03747967930986</v>
+        <v>1.05777087237003</v>
       </c>
       <c r="J6">
-        <v>0.9263658661016746</v>
+        <v>1.071001297413893</v>
       </c>
       <c r="K6">
-        <v>0.9304731564079849</v>
+        <v>1.07565067852115</v>
       </c>
       <c r="L6">
-        <v>0.928556465152822</v>
+        <v>1.070435827031461</v>
       </c>
       <c r="M6">
-        <v>0.9385353884065658</v>
+        <v>1.081194900096924</v>
       </c>
       <c r="N6">
-        <v>0.927681411887189</v>
+        <v>1.072522242101786</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8897762464774925</v>
+        <v>1.050549166247139</v>
       </c>
       <c r="D7">
-        <v>0.9050724959956845</v>
+        <v>1.063877346961819</v>
       </c>
       <c r="E7">
-        <v>0.904382148680104</v>
+        <v>1.058769002443452</v>
       </c>
       <c r="F7">
-        <v>0.9136459727268593</v>
+        <v>1.069418419555561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036347964208559</v>
+        <v>1.057031584868283</v>
       </c>
       <c r="J7">
-        <v>0.912484480706175</v>
+        <v>1.068736961621007</v>
       </c>
       <c r="K7">
-        <v>0.916466426769958</v>
+        <v>1.073258666526068</v>
       </c>
       <c r="L7">
-        <v>0.9157867975515959</v>
+        <v>1.068203552820703</v>
       </c>
       <c r="M7">
-        <v>0.9249085143461174</v>
+        <v>1.078742700057795</v>
       </c>
       <c r="N7">
-        <v>0.9137803133322107</v>
+        <v>1.070254690692351</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8000330102922349</v>
+        <v>1.038371684250832</v>
       </c>
       <c r="D8">
-        <v>0.8185290729602216</v>
+        <v>1.05238380846751</v>
       </c>
       <c r="E8">
-        <v>0.8253471978124043</v>
+        <v>1.047966057623779</v>
       </c>
       <c r="F8">
-        <v>0.8295701145849625</v>
+        <v>1.057674672895644</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029632146247378</v>
+        <v>1.05379824048228</v>
       </c>
       <c r="J8">
-        <v>0.8296083386928096</v>
+        <v>1.058922479724379</v>
       </c>
       <c r="K8">
-        <v>0.8328953127570097</v>
+        <v>1.062898051017392</v>
       </c>
       <c r="L8">
-        <v>0.8395599685007381</v>
+        <v>1.058533252511768</v>
       </c>
       <c r="M8">
-        <v>0.8436895131969706</v>
+        <v>1.068126218583495</v>
       </c>
       <c r="N8">
-        <v>0.83078647769116</v>
+        <v>1.060426271105694</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8000330102922349</v>
+        <v>1.015070380736891</v>
       </c>
       <c r="D9">
-        <v>0.8185290729602216</v>
+        <v>1.030440974397171</v>
       </c>
       <c r="E9">
-        <v>0.8253471978124043</v>
+        <v>1.027345956262896</v>
       </c>
       <c r="F9">
-        <v>0.8295701145849625</v>
+        <v>1.035270435350648</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029632146247378</v>
+        <v>1.047488132185255</v>
       </c>
       <c r="J9">
-        <v>0.8296083386928096</v>
+        <v>1.040101963175467</v>
       </c>
       <c r="K9">
-        <v>0.8328953127570097</v>
+        <v>1.043058746467506</v>
       </c>
       <c r="L9">
-        <v>0.8395599685007381</v>
+        <v>1.040010414832399</v>
       </c>
       <c r="M9">
-        <v>0.8436895131969706</v>
+        <v>1.047816066804933</v>
       </c>
       <c r="N9">
-        <v>0.83078647769116</v>
+        <v>1.041579027264539</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8000330102922349</v>
+        <v>0.9979973876789521</v>
       </c>
       <c r="D10">
-        <v>0.8185290729602216</v>
+        <v>1.01440555818252</v>
       </c>
       <c r="E10">
-        <v>0.8253471978124043</v>
+        <v>1.012282084190451</v>
       </c>
       <c r="F10">
-        <v>0.8295701145849625</v>
+        <v>1.018909094581132</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029632146247378</v>
+        <v>1.042786205388486</v>
       </c>
       <c r="J10">
-        <v>0.8296083386928096</v>
+        <v>1.026290686214452</v>
       </c>
       <c r="K10">
-        <v>0.8328953127570097</v>
+        <v>1.028519497466026</v>
       </c>
       <c r="L10">
-        <v>0.8395599685007381</v>
+        <v>1.026433067107123</v>
       </c>
       <c r="M10">
-        <v>0.8436895131969706</v>
+        <v>1.032945131083933</v>
       </c>
       <c r="N10">
-        <v>0.83078647769116</v>
+        <v>1.027748136706064</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8000330102922349</v>
+        <v>0.9901558151094011</v>
       </c>
       <c r="D11">
-        <v>0.8185290729602216</v>
+        <v>1.007052809677123</v>
       </c>
       <c r="E11">
-        <v>0.8253471978124043</v>
+        <v>1.005376537037739</v>
       </c>
       <c r="F11">
-        <v>0.8295701145849625</v>
+        <v>1.011409607542126</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029632146247378</v>
+        <v>1.040609560815149</v>
       </c>
       <c r="J11">
-        <v>0.8296083386928096</v>
+        <v>1.01994393654741</v>
       </c>
       <c r="K11">
-        <v>0.8328953127570097</v>
+        <v>1.021842934817296</v>
       </c>
       <c r="L11">
-        <v>0.8395599685007381</v>
+        <v>1.020197767060877</v>
       </c>
       <c r="M11">
-        <v>0.8436895131969706</v>
+        <v>1.026119515964776</v>
       </c>
       <c r="N11">
-        <v>0.83078647769116</v>
+        <v>1.021392373926512</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8000330102922349</v>
+        <v>0.9871668932723134</v>
       </c>
       <c r="D12">
-        <v>0.8185290729602216</v>
+        <v>1.004252279688754</v>
       </c>
       <c r="E12">
-        <v>0.8253471978124043</v>
+        <v>1.002746652451113</v>
       </c>
       <c r="F12">
-        <v>0.8295701145849625</v>
+        <v>1.008553597318221</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029632146247378</v>
+        <v>1.039777501290787</v>
       </c>
       <c r="J12">
-        <v>0.8296083386928096</v>
+        <v>1.017524481565133</v>
       </c>
       <c r="K12">
-        <v>0.8328953127570097</v>
+        <v>1.019298463669333</v>
       </c>
       <c r="L12">
-        <v>0.8395599685007381</v>
+        <v>1.017821419443694</v>
       </c>
       <c r="M12">
-        <v>0.8436895131969706</v>
+        <v>1.02351873837833</v>
       </c>
       <c r="N12">
-        <v>0.83078647769116</v>
+        <v>1.018969483040645</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8000330102922349</v>
+        <v>0.9878116350514288</v>
       </c>
       <c r="D13">
-        <v>0.8185290729602216</v>
+        <v>1.004856286026129</v>
       </c>
       <c r="E13">
-        <v>0.8253471978124043</v>
+        <v>1.003313839533769</v>
       </c>
       <c r="F13">
-        <v>0.8295701145849625</v>
+        <v>1.009169550865784</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029632146247378</v>
+        <v>1.039957090674175</v>
       </c>
       <c r="J13">
-        <v>0.8296083386928096</v>
+        <v>1.018046393798381</v>
       </c>
       <c r="K13">
-        <v>0.8328953127570097</v>
+        <v>1.019847311552397</v>
       </c>
       <c r="L13">
-        <v>0.8395599685007381</v>
+        <v>1.018334004265733</v>
       </c>
       <c r="M13">
-        <v>0.8436895131969706</v>
+        <v>1.024079709074244</v>
       </c>
       <c r="N13">
-        <v>0.83078647769116</v>
+        <v>1.019492136449128</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8000330102922349</v>
+        <v>0.9899103612937115</v>
       </c>
       <c r="D14">
-        <v>0.8185290729602216</v>
+        <v>1.006822783518875</v>
       </c>
       <c r="E14">
-        <v>0.8253471978124043</v>
+        <v>1.00516052040148</v>
       </c>
       <c r="F14">
-        <v>0.8295701145849625</v>
+        <v>1.011175016111704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029632146247378</v>
+        <v>1.040541278670885</v>
       </c>
       <c r="J14">
-        <v>0.8296083386928096</v>
+        <v>1.019745253017797</v>
       </c>
       <c r="K14">
-        <v>0.8328953127570097</v>
+        <v>1.021633970632896</v>
       </c>
       <c r="L14">
-        <v>0.8395599685007381</v>
+        <v>1.020002610721674</v>
       </c>
       <c r="M14">
-        <v>0.8436895131969706</v>
+        <v>1.025905917494287</v>
       </c>
       <c r="N14">
-        <v>0.83078647769116</v>
+        <v>1.021193408243497</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8000330102922349</v>
+        <v>0.9911930662599957</v>
       </c>
       <c r="D15">
-        <v>0.8185290729602216</v>
+        <v>1.008024951166174</v>
       </c>
       <c r="E15">
-        <v>0.8253471978124043</v>
+        <v>1.006289484288102</v>
       </c>
       <c r="F15">
-        <v>0.8295701145849625</v>
+        <v>1.012401059513185</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029632146247378</v>
+        <v>1.040898014649925</v>
       </c>
       <c r="J15">
-        <v>0.8296083386928096</v>
+        <v>1.020783532278255</v>
       </c>
       <c r="K15">
-        <v>0.8328953127570097</v>
+        <v>1.022726003371961</v>
       </c>
       <c r="L15">
-        <v>0.8395599685007381</v>
+        <v>1.021022482969673</v>
       </c>
       <c r="M15">
-        <v>0.8436895131969706</v>
+        <v>1.027022188941262</v>
       </c>
       <c r="N15">
-        <v>0.83078647769116</v>
+        <v>1.022233161979597</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8000330102922349</v>
+        <v>0.9985076373119574</v>
       </c>
       <c r="D16">
-        <v>0.8185290729602216</v>
+        <v>1.014884270499053</v>
       </c>
       <c r="E16">
-        <v>0.8253471978124043</v>
+        <v>1.012731720593836</v>
       </c>
       <c r="F16">
-        <v>0.8295701145849625</v>
+        <v>1.019397416504652</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029632146247378</v>
+        <v>1.042927501323496</v>
       </c>
       <c r="J16">
-        <v>0.8296083386928096</v>
+        <v>1.02670361557723</v>
       </c>
       <c r="K16">
-        <v>0.8328953127570097</v>
+        <v>1.028953982226693</v>
       </c>
       <c r="L16">
-        <v>0.8395599685007381</v>
+        <v>1.026838828834754</v>
       </c>
       <c r="M16">
-        <v>0.8436895131969706</v>
+        <v>1.033389383323037</v>
       </c>
       <c r="N16">
-        <v>0.83078647769116</v>
+        <v>1.0281616524759</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8000330102922349</v>
+        <v>1.002969995429968</v>
       </c>
       <c r="D17">
-        <v>0.8185290729602216</v>
+        <v>1.01907221694752</v>
       </c>
       <c r="E17">
-        <v>0.8253471978124043</v>
+        <v>1.016665498643764</v>
       </c>
       <c r="F17">
-        <v>0.8295701145849625</v>
+        <v>1.023669734886859</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029632146247378</v>
+        <v>1.044161303690888</v>
       </c>
       <c r="J17">
-        <v>0.8296083386928096</v>
+        <v>1.030314517595039</v>
       </c>
       <c r="K17">
-        <v>0.8328953127570097</v>
+        <v>1.032753905498492</v>
       </c>
       <c r="L17">
-        <v>0.8395599685007381</v>
+        <v>1.030387497633068</v>
       </c>
       <c r="M17">
-        <v>0.8436895131969706</v>
+        <v>1.037275097001926</v>
       </c>
       <c r="N17">
-        <v>0.83078647769116</v>
+        <v>1.031777682388751</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8000330102922349</v>
+        <v>1.005530176066226</v>
       </c>
       <c r="D18">
-        <v>0.8185290729602216</v>
+        <v>1.021476085794379</v>
       </c>
       <c r="E18">
-        <v>0.8253471978124043</v>
+        <v>1.018923631580341</v>
       </c>
       <c r="F18">
-        <v>0.8295701145849625</v>
+        <v>1.026122285142612</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029632146247378</v>
+        <v>1.044867570834186</v>
       </c>
       <c r="J18">
-        <v>0.8296083386928096</v>
+        <v>1.032385875780133</v>
       </c>
       <c r="K18">
-        <v>0.8328953127570097</v>
+        <v>1.034934132372022</v>
       </c>
       <c r="L18">
-        <v>0.8395599685007381</v>
+        <v>1.032423522083896</v>
       </c>
       <c r="M18">
-        <v>0.8436895131969706</v>
+        <v>1.039504849652224</v>
       </c>
       <c r="N18">
-        <v>0.83078647769116</v>
+        <v>1.033851982140056</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8000330102922349</v>
+        <v>1.006396140461953</v>
       </c>
       <c r="D19">
-        <v>0.8185290729602216</v>
+        <v>1.022289363675988</v>
       </c>
       <c r="E19">
-        <v>0.8253471978124043</v>
+        <v>1.019687628987511</v>
       </c>
       <c r="F19">
-        <v>0.8295701145849625</v>
+        <v>1.026952075635611</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029632146247378</v>
+        <v>1.04510618530147</v>
       </c>
       <c r="J19">
-        <v>0.8296083386928096</v>
+        <v>1.033086440237693</v>
       </c>
       <c r="K19">
-        <v>0.8328953127570097</v>
+        <v>1.03567159213685</v>
       </c>
       <c r="L19">
-        <v>0.8395599685007381</v>
+        <v>1.033112197443929</v>
       </c>
       <c r="M19">
-        <v>0.8436895131969706</v>
+        <v>1.040259112656782</v>
       </c>
       <c r="N19">
-        <v>0.83078647769116</v>
+        <v>1.034553541479502</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8000330102922349</v>
+        <v>1.002495695128836</v>
       </c>
       <c r="D20">
-        <v>0.8185290729602216</v>
+        <v>1.018626964958517</v>
       </c>
       <c r="E20">
-        <v>0.8253471978124043</v>
+        <v>1.016247252601806</v>
       </c>
       <c r="F20">
-        <v>0.8295701145849625</v>
+        <v>1.023215486421864</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029632146247378</v>
+        <v>1.044030329363707</v>
       </c>
       <c r="J20">
-        <v>0.8296083386928096</v>
+        <v>1.029930749747451</v>
       </c>
       <c r="K20">
-        <v>0.8328953127570097</v>
+        <v>1.032350002735581</v>
       </c>
       <c r="L20">
-        <v>0.8395599685007381</v>
+        <v>1.030010305700138</v>
       </c>
       <c r="M20">
-        <v>0.8436895131969706</v>
+        <v>1.036862043776818</v>
       </c>
       <c r="N20">
-        <v>0.83078647769116</v>
+        <v>1.0313933695468</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8000330102922349</v>
+        <v>0.9892945213755434</v>
       </c>
       <c r="D21">
-        <v>0.8185290729602216</v>
+        <v>1.006245685418238</v>
       </c>
       <c r="E21">
-        <v>0.8253471978124043</v>
+        <v>1.004618575162017</v>
       </c>
       <c r="F21">
-        <v>0.8295701145849625</v>
+        <v>1.010586471077958</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029632146247378</v>
+        <v>1.040369921845032</v>
       </c>
       <c r="J21">
-        <v>0.8296083386928096</v>
+        <v>1.019246754833455</v>
       </c>
       <c r="K21">
-        <v>0.8328953127570097</v>
+        <v>1.021109689671643</v>
       </c>
       <c r="L21">
-        <v>0.8395599685007381</v>
+        <v>1.019512972357149</v>
       </c>
       <c r="M21">
-        <v>0.8436895131969706</v>
+        <v>1.025370017361798</v>
       </c>
       <c r="N21">
-        <v>0.83078647769116</v>
+        <v>1.020694202134556</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8000330102922349</v>
+        <v>0.9805478260085956</v>
       </c>
       <c r="D22">
-        <v>0.8185290729602216</v>
+        <v>0.998054530857703</v>
       </c>
       <c r="E22">
-        <v>0.8253471978124043</v>
+        <v>0.9969272061838774</v>
       </c>
       <c r="F22">
-        <v>0.8295701145849625</v>
+        <v>1.002233829317097</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029632146247378</v>
+        <v>1.037930634548732</v>
       </c>
       <c r="J22">
-        <v>0.8296083386928096</v>
+        <v>1.012166190080407</v>
       </c>
       <c r="K22">
-        <v>0.8328953127570097</v>
+        <v>1.013664626640698</v>
       </c>
       <c r="L22">
-        <v>0.8395599685007381</v>
+        <v>1.012559782483991</v>
       </c>
       <c r="M22">
-        <v>0.8436895131969706</v>
+        <v>1.017761163120897</v>
       </c>
       <c r="N22">
-        <v>0.83078647769116</v>
+        <v>1.013603582167406</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8000330102922349</v>
+        <v>0.9852303359003507</v>
       </c>
       <c r="D23">
-        <v>0.8185290729602216</v>
+        <v>1.002438399116166</v>
       </c>
       <c r="E23">
-        <v>0.8253471978124043</v>
+        <v>1.001043394131169</v>
       </c>
       <c r="F23">
-        <v>0.8295701145849625</v>
+        <v>1.006703898637542</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029632146247378</v>
+        <v>1.039237745289153</v>
       </c>
       <c r="J23">
-        <v>0.8296083386928096</v>
+        <v>1.015956828593822</v>
       </c>
       <c r="K23">
-        <v>0.8328953127570097</v>
+        <v>1.017650009657251</v>
       </c>
       <c r="L23">
-        <v>0.8395599685007381</v>
+        <v>1.016281876509176</v>
       </c>
       <c r="M23">
-        <v>0.8436895131969706</v>
+        <v>1.021833947496597</v>
       </c>
       <c r="N23">
-        <v>0.83078647769116</v>
+        <v>1.017399603822303</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8000330102922349</v>
+        <v>1.00271014213899</v>
       </c>
       <c r="D24">
-        <v>0.8185290729602216</v>
+        <v>1.018828274768775</v>
       </c>
       <c r="E24">
-        <v>0.8253471978124043</v>
+        <v>1.016436351851426</v>
       </c>
       <c r="F24">
-        <v>0.8295701145849625</v>
+        <v>1.023420862984644</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029632146247378</v>
+        <v>1.044089552222698</v>
       </c>
       <c r="J24">
-        <v>0.8296083386928096</v>
+        <v>1.030104265014054</v>
       </c>
       <c r="K24">
-        <v>0.8328953127570097</v>
+        <v>1.032532620358255</v>
       </c>
       <c r="L24">
-        <v>0.8395599685007381</v>
+        <v>1.030180846622644</v>
       </c>
       <c r="M24">
-        <v>0.8436895131969706</v>
+        <v>1.037048797679668</v>
       </c>
       <c r="N24">
-        <v>0.83078647769116</v>
+        <v>1.031567131224985</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8000330102922349</v>
+        <v>1.021340798462016</v>
       </c>
       <c r="D25">
-        <v>0.8185290729602216</v>
+        <v>1.03633935063193</v>
       </c>
       <c r="E25">
-        <v>0.8253471978124043</v>
+        <v>1.032888099497801</v>
       </c>
       <c r="F25">
-        <v>0.8295701145849625</v>
+        <v>1.041290950890278</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029632146247378</v>
+        <v>1.049199855930597</v>
       </c>
       <c r="J25">
-        <v>0.8296083386928096</v>
+        <v>1.04517070226639</v>
       </c>
       <c r="K25">
-        <v>0.8328953127570097</v>
+        <v>1.04839857038921</v>
       </c>
       <c r="L25">
-        <v>0.8395599685007381</v>
+        <v>1.0449964549144</v>
       </c>
       <c r="M25">
-        <v>0.8436895131969706</v>
+        <v>1.05328039285323</v>
       </c>
       <c r="N25">
-        <v>0.83078647769116</v>
+        <v>1.046654964546363</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.035121145933515</v>
+        <v>1.093771920020204</v>
       </c>
       <c r="D2">
-        <v>1.049318841926611</v>
+        <v>1.103523098914172</v>
       </c>
       <c r="E2">
-        <v>1.045085471824597</v>
+        <v>1.09671933217123</v>
       </c>
       <c r="F2">
-        <v>1.054544045570128</v>
+        <v>1.110981167979094</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052926929484579</v>
+        <v>1.049359121094061</v>
       </c>
       <c r="J2">
-        <v>1.056299836753477</v>
+        <v>1.098586239806329</v>
       </c>
       <c r="K2">
-        <v>1.060131326391986</v>
+        <v>1.106137551252725</v>
       </c>
       <c r="L2">
-        <v>1.055950493572627</v>
+        <v>1.099350889984954</v>
       </c>
       <c r="M2">
-        <v>1.065292406903615</v>
+        <v>1.113577128896065</v>
       </c>
       <c r="N2">
-        <v>1.057799903680952</v>
+        <v>1.100146358276456</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.044599878447632</v>
+        <v>1.09560557136484</v>
       </c>
       <c r="D3">
-        <v>1.058259978785856</v>
+        <v>1.105301676400755</v>
       </c>
       <c r="E3">
-        <v>1.053489007123603</v>
+        <v>1.098388855592123</v>
       </c>
       <c r="F3">
-        <v>1.063677950655497</v>
+        <v>1.11281134670521</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055458318947371</v>
+        <v>1.049739421189455</v>
       </c>
       <c r="J3">
-        <v>1.063944376229262</v>
+        <v>1.100082184469998</v>
       </c>
       <c r="K3">
-        <v>1.068197971999662</v>
+        <v>1.107736396463868</v>
       </c>
       <c r="L3">
-        <v>1.063480344523797</v>
+        <v>1.100839680383622</v>
       </c>
       <c r="M3">
-        <v>1.073556078539857</v>
+        <v>1.115228814501649</v>
       </c>
       <c r="N3">
-        <v>1.065455299279633</v>
+        <v>1.101644427353136</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.050516391532271</v>
+        <v>1.096789243614594</v>
       </c>
       <c r="D4">
-        <v>1.063846389181167</v>
+        <v>1.10645002574066</v>
       </c>
       <c r="E4">
-        <v>1.058739903274036</v>
+        <v>1.099466703382474</v>
       </c>
       <c r="F4">
-        <v>1.069386778892939</v>
+        <v>1.113993239271897</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057022953208084</v>
+        <v>1.049982936447796</v>
       </c>
       <c r="J4">
-        <v>1.068710572092629</v>
+        <v>1.101046983498589</v>
       </c>
       <c r="K4">
-        <v>1.073230792895387</v>
+        <v>1.108767980415643</v>
       </c>
       <c r="L4">
-        <v>1.06817753971606</v>
+        <v>1.101800096800784</v>
       </c>
       <c r="M4">
-        <v>1.078714127648796</v>
+        <v>1.116294749700577</v>
       </c>
       <c r="N4">
-        <v>1.070228263687817</v>
+        <v>1.102610596507011</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.052955315737483</v>
+        <v>1.097286199363747</v>
       </c>
       <c r="D5">
-        <v>1.066150458295746</v>
+        <v>1.106932205569278</v>
       </c>
       <c r="E5">
-        <v>1.060905661432578</v>
+        <v>1.099919258624457</v>
       </c>
       <c r="F5">
-        <v>1.071741811922293</v>
+        <v>1.114489557772938</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057664156299799</v>
+        <v>1.050084700294026</v>
       </c>
       <c r="J5">
-        <v>1.070673930468378</v>
+        <v>1.101451837286973</v>
       </c>
       <c r="K5">
-        <v>1.075304811529262</v>
+        <v>1.109200959408902</v>
       </c>
       <c r="L5">
-        <v>1.070113066161613</v>
+        <v>1.102203166919671</v>
       </c>
       <c r="M5">
-        <v>1.080840303028353</v>
+        <v>1.116742208526509</v>
       </c>
       <c r="N5">
-        <v>1.072194410257659</v>
+        <v>1.103016025234212</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.053362080957629</v>
+        <v>1.09736960216833</v>
       </c>
       <c r="D6">
-        <v>1.066534801702294</v>
+        <v>1.107013131725524</v>
       </c>
       <c r="E6">
-        <v>1.06126693656522</v>
+        <v>1.09999521149011</v>
       </c>
       <c r="F6">
-        <v>1.072134684508096</v>
+        <v>1.114572860058335</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05777087237003</v>
+        <v>1.050101751236428</v>
       </c>
       <c r="J6">
-        <v>1.071001297413893</v>
+        <v>1.101519770545437</v>
       </c>
       <c r="K6">
-        <v>1.07565067852115</v>
+        <v>1.109273617893696</v>
       </c>
       <c r="L6">
-        <v>1.070435827031461</v>
+        <v>1.102270804131172</v>
       </c>
       <c r="M6">
-        <v>1.081194900096924</v>
+        <v>1.116817300508385</v>
       </c>
       <c r="N6">
-        <v>1.072522242101786</v>
+        <v>1.103084054965695</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.050549166247139</v>
+        <v>1.096795886533728</v>
       </c>
       <c r="D7">
-        <v>1.063877346961819</v>
+        <v>1.106456470934775</v>
       </c>
       <c r="E7">
-        <v>1.058769002443452</v>
+        <v>1.099472752676711</v>
       </c>
       <c r="F7">
-        <v>1.069418419555561</v>
+        <v>1.113999873241479</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057031584868283</v>
+        <v>1.049984298612604</v>
       </c>
       <c r="J7">
-        <v>1.068736961621007</v>
+        <v>1.101052396095065</v>
       </c>
       <c r="K7">
-        <v>1.073258666526068</v>
+        <v>1.108773768629807</v>
       </c>
       <c r="L7">
-        <v>1.068203552820703</v>
+        <v>1.10180548533319</v>
       </c>
       <c r="M7">
-        <v>1.078742700057795</v>
+        <v>1.116300731243058</v>
       </c>
       <c r="N7">
-        <v>1.070254690692351</v>
+        <v>1.102616016789995</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.038371684250832</v>
+        <v>1.094392205051339</v>
       </c>
       <c r="D8">
-        <v>1.05238380846751</v>
+        <v>1.104124705806202</v>
       </c>
       <c r="E8">
-        <v>1.047966057623779</v>
+        <v>1.097284069938292</v>
       </c>
       <c r="F8">
-        <v>1.057674672895644</v>
+        <v>1.111600182084229</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05379824048228</v>
+        <v>1.049488178636169</v>
       </c>
       <c r="J8">
-        <v>1.058922479724379</v>
+        <v>1.099092466970454</v>
       </c>
       <c r="K8">
-        <v>1.062898051017392</v>
+        <v>1.106678512808549</v>
       </c>
       <c r="L8">
-        <v>1.058533252511768</v>
+        <v>1.099854648089623</v>
       </c>
       <c r="M8">
-        <v>1.068126218583495</v>
+        <v>1.114135915148425</v>
       </c>
       <c r="N8">
-        <v>1.060426271105694</v>
+        <v>1.10065330434122</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.015070380736891</v>
+        <v>1.090134283863673</v>
       </c>
       <c r="D9">
-        <v>1.030440974397171</v>
+        <v>1.099995967472548</v>
       </c>
       <c r="E9">
-        <v>1.027345956262896</v>
+        <v>1.093407993699381</v>
       </c>
       <c r="F9">
-        <v>1.035270435350648</v>
+        <v>1.107352914299869</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047488132185255</v>
+        <v>1.048594134221807</v>
       </c>
       <c r="J9">
-        <v>1.040101963175467</v>
+        <v>1.095613906090884</v>
       </c>
       <c r="K9">
-        <v>1.043058746467506</v>
+        <v>1.102963003940098</v>
       </c>
       <c r="L9">
-        <v>1.040010414832399</v>
+        <v>1.096394009922563</v>
       </c>
       <c r="M9">
-        <v>1.047816066804933</v>
+        <v>1.110299045348919</v>
       </c>
       <c r="N9">
-        <v>1.041579027264539</v>
+        <v>1.097169803506205</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9979973876789521</v>
+        <v>1.087279663656874</v>
       </c>
       <c r="D10">
-        <v>1.01440555818252</v>
+        <v>1.09722919880705</v>
       </c>
       <c r="E10">
-        <v>1.012282084190451</v>
+        <v>1.090810087071864</v>
       </c>
       <c r="F10">
-        <v>1.018909094581132</v>
+        <v>1.104507891268124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042786205388486</v>
+        <v>1.047984529558414</v>
       </c>
       <c r="J10">
-        <v>1.026290686214452</v>
+        <v>1.093277296202349</v>
       </c>
       <c r="K10">
-        <v>1.028519497466026</v>
+        <v>1.100469408827325</v>
       </c>
       <c r="L10">
-        <v>1.026433067107123</v>
+        <v>1.094070644560377</v>
       </c>
       <c r="M10">
-        <v>1.032945131083933</v>
+        <v>1.107725341703821</v>
       </c>
       <c r="N10">
-        <v>1.027748136706064</v>
+        <v>1.094829875363615</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9901558151094011</v>
+        <v>1.086039562675418</v>
       </c>
       <c r="D11">
-        <v>1.007052809677123</v>
+        <v>1.096027566023009</v>
       </c>
       <c r="E11">
-        <v>1.005376537037739</v>
+        <v>1.089681687140609</v>
       </c>
       <c r="F11">
-        <v>1.011409607542126</v>
+        <v>1.103272551004686</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040609560815149</v>
+        <v>1.04771728776628</v>
       </c>
       <c r="J11">
-        <v>1.01994393654741</v>
+        <v>1.092261168003457</v>
       </c>
       <c r="K11">
-        <v>1.021842934817296</v>
+        <v>1.099385528185156</v>
       </c>
       <c r="L11">
-        <v>1.020197767060877</v>
+        <v>1.093060562723907</v>
       </c>
       <c r="M11">
-        <v>1.026119515964776</v>
+        <v>1.106606958876841</v>
       </c>
       <c r="N11">
-        <v>1.021392373926512</v>
+        <v>1.093812304146129</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9871668932723134</v>
+        <v>1.08557830898608</v>
       </c>
       <c r="D12">
-        <v>1.004252279688754</v>
+        <v>1.095580666907205</v>
       </c>
       <c r="E12">
-        <v>1.002746652451113</v>
+        <v>1.089262008369981</v>
       </c>
       <c r="F12">
-        <v>1.008553597318221</v>
+        <v>1.102813157708313</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039777501290787</v>
+        <v>1.047617524705941</v>
       </c>
       <c r="J12">
-        <v>1.017524481565133</v>
+        <v>1.091883061716865</v>
       </c>
       <c r="K12">
-        <v>1.019298463669333</v>
+        <v>1.098982288419987</v>
       </c>
       <c r="L12">
-        <v>1.017821419443694</v>
+        <v>1.092684749452861</v>
       </c>
       <c r="M12">
-        <v>1.02351873837833</v>
+        <v>1.106190930987332</v>
       </c>
       <c r="N12">
-        <v>1.018969483040645</v>
+        <v>1.093433660905241</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9878116350514288</v>
+        <v>1.08567727806106</v>
       </c>
       <c r="D13">
-        <v>1.004856286026129</v>
+        <v>1.095676553877099</v>
       </c>
       <c r="E13">
-        <v>1.003313839533769</v>
+        <v>1.089352055631184</v>
       </c>
       <c r="F13">
-        <v>1.009169550865784</v>
+        <v>1.102911723538719</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039957090674175</v>
+        <v>1.047638946816537</v>
       </c>
       <c r="J13">
-        <v>1.018046393798381</v>
+        <v>1.09196419742137</v>
       </c>
       <c r="K13">
-        <v>1.019847311552397</v>
+        <v>1.099068813868815</v>
       </c>
       <c r="L13">
-        <v>1.018334004265733</v>
+        <v>1.092765391159572</v>
       </c>
       <c r="M13">
-        <v>1.024079709074244</v>
+        <v>1.106280198291952</v>
       </c>
       <c r="N13">
-        <v>1.019492136449128</v>
+        <v>1.093514911831753</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9899103612937115</v>
+        <v>1.086001448163006</v>
       </c>
       <c r="D14">
-        <v>1.006822783518875</v>
+        <v>1.095990636713743</v>
       </c>
       <c r="E14">
-        <v>1.00516052040148</v>
+        <v>1.089647007491138</v>
       </c>
       <c r="F14">
-        <v>1.011175016111704</v>
+        <v>1.103234588388474</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040541278670885</v>
+        <v>1.047709051499426</v>
       </c>
       <c r="J14">
-        <v>1.019745253017797</v>
+        <v>1.092229927401227</v>
       </c>
       <c r="K14">
-        <v>1.021633970632896</v>
+        <v>1.099352209377019</v>
       </c>
       <c r="L14">
-        <v>1.020002610721674</v>
+        <v>1.09302951069967</v>
       </c>
       <c r="M14">
-        <v>1.025905917494287</v>
+        <v>1.106572582438762</v>
       </c>
       <c r="N14">
-        <v>1.021193408243497</v>
+        <v>1.093781019178661</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9911930662599957</v>
+        <v>1.086201096667081</v>
       </c>
       <c r="D15">
-        <v>1.008024951166174</v>
+        <v>1.096184078880895</v>
       </c>
       <c r="E15">
-        <v>1.006289484288102</v>
+        <v>1.089828664906976</v>
       </c>
       <c r="F15">
-        <v>1.012401059513185</v>
+        <v>1.103433444915599</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040898014649925</v>
+        <v>1.047752179228125</v>
       </c>
       <c r="J15">
-        <v>1.020783532278255</v>
+        <v>1.092393563015594</v>
       </c>
       <c r="K15">
-        <v>1.022726003371961</v>
+        <v>1.099526733629983</v>
       </c>
       <c r="L15">
-        <v>1.021022482969673</v>
+        <v>1.093192160324141</v>
       </c>
       <c r="M15">
-        <v>1.027022188941262</v>
+        <v>1.106752648526062</v>
       </c>
       <c r="N15">
-        <v>1.022233161979597</v>
+        <v>1.09394488717437</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9985076373119574</v>
+        <v>1.087361878494166</v>
       </c>
       <c r="D16">
-        <v>1.014884270499053</v>
+        <v>1.097308869778544</v>
       </c>
       <c r="E16">
-        <v>1.012731720593836</v>
+        <v>1.090884900334464</v>
       </c>
       <c r="F16">
-        <v>1.019397416504652</v>
+        <v>1.104589802997924</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042927501323496</v>
+        <v>1.048002196012501</v>
       </c>
       <c r="J16">
-        <v>1.02670361557723</v>
+        <v>1.093344640057809</v>
       </c>
       <c r="K16">
-        <v>1.028953982226693</v>
+        <v>1.100541253829041</v>
       </c>
       <c r="L16">
-        <v>1.026838828834754</v>
+        <v>1.094137593728649</v>
       </c>
       <c r="M16">
-        <v>1.033389383323037</v>
+        <v>1.107799480379393</v>
       </c>
       <c r="N16">
-        <v>1.0281616524759</v>
+        <v>1.094897314855073</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002969995429968</v>
+        <v>1.088088913360699</v>
       </c>
       <c r="D17">
-        <v>1.01907221694752</v>
+        <v>1.098013444090497</v>
       </c>
       <c r="E17">
-        <v>1.016665498643764</v>
+        <v>1.091546503105616</v>
       </c>
       <c r="F17">
-        <v>1.023669734886859</v>
+        <v>1.105314225766705</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044161303690888</v>
+        <v>1.048158143603267</v>
       </c>
       <c r="J17">
-        <v>1.030314517595039</v>
+        <v>1.093940046919861</v>
       </c>
       <c r="K17">
-        <v>1.032753905498492</v>
+        <v>1.101176516144986</v>
       </c>
       <c r="L17">
-        <v>1.030387497633068</v>
+        <v>1.094729544096421</v>
       </c>
       <c r="M17">
-        <v>1.037275097001926</v>
+        <v>1.108455060336619</v>
       </c>
       <c r="N17">
-        <v>1.031777682388751</v>
+        <v>1.095493567263164</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005530176066226</v>
+        <v>1.088512592819958</v>
       </c>
       <c r="D18">
-        <v>1.021476085794379</v>
+        <v>1.098424063873489</v>
       </c>
       <c r="E18">
-        <v>1.018923631580341</v>
+        <v>1.091932069279172</v>
       </c>
       <c r="F18">
-        <v>1.026122285142612</v>
+        <v>1.105736439936995</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044867570834186</v>
+        <v>1.048248789159975</v>
       </c>
       <c r="J18">
-        <v>1.032385875780133</v>
+        <v>1.094286918007205</v>
       </c>
       <c r="K18">
-        <v>1.034934132372022</v>
+        <v>1.101546655829505</v>
       </c>
       <c r="L18">
-        <v>1.032423522083896</v>
+        <v>1.095074429090797</v>
       </c>
       <c r="M18">
-        <v>1.039504849652224</v>
+        <v>1.108837068861887</v>
       </c>
       <c r="N18">
-        <v>1.033851982140056</v>
+        <v>1.09584093094724</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006396140461953</v>
+        <v>1.088656991389469</v>
       </c>
       <c r="D19">
-        <v>1.022289363675988</v>
+        <v>1.098564016371872</v>
       </c>
       <c r="E19">
-        <v>1.019687628987511</v>
+        <v>1.092063480967502</v>
       </c>
       <c r="F19">
-        <v>1.026952075635611</v>
+        <v>1.105880348735639</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04510618530147</v>
+        <v>1.048279643495691</v>
       </c>
       <c r="J19">
-        <v>1.033086440237693</v>
+        <v>1.09440512137991</v>
       </c>
       <c r="K19">
-        <v>1.03567159213685</v>
+        <v>1.101672796875942</v>
       </c>
       <c r="L19">
-        <v>1.033112197443929</v>
+        <v>1.095191960338989</v>
       </c>
       <c r="M19">
-        <v>1.040259112656782</v>
+        <v>1.108967259922876</v>
       </c>
       <c r="N19">
-        <v>1.034553541479502</v>
+        <v>1.095959302182292</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002495695128836</v>
+        <v>1.088010949638509</v>
       </c>
       <c r="D20">
-        <v>1.018626964958517</v>
+        <v>1.097937885902566</v>
       </c>
       <c r="E20">
-        <v>1.016247252601806</v>
+        <v>1.091475554214663</v>
       </c>
       <c r="F20">
-        <v>1.023215486421864</v>
+        <v>1.105236536259042</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044030329363707</v>
+        <v>1.048141444627208</v>
       </c>
       <c r="J20">
-        <v>1.029930749747451</v>
+        <v>1.093876208920672</v>
       </c>
       <c r="K20">
-        <v>1.032350002735581</v>
+        <v>1.101108399805443</v>
       </c>
       <c r="L20">
-        <v>1.030010305700138</v>
+        <v>1.094666073838598</v>
       </c>
       <c r="M20">
-        <v>1.036862043776818</v>
+        <v>1.108384762256844</v>
       </c>
       <c r="N20">
-        <v>1.0313933695468</v>
+        <v>1.095429638606694</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9892945213755434</v>
+        <v>1.085906005555755</v>
       </c>
       <c r="D21">
-        <v>1.006245685418238</v>
+        <v>1.095898162727067</v>
       </c>
       <c r="E21">
-        <v>1.004618575162017</v>
+        <v>1.08956016658252</v>
       </c>
       <c r="F21">
-        <v>1.010586471077958</v>
+        <v>1.103139527595172</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040369921845032</v>
+        <v>1.047688421192647</v>
       </c>
       <c r="J21">
-        <v>1.019246754833455</v>
+        <v>1.092151695197514</v>
       </c>
       <c r="K21">
-        <v>1.021109689671643</v>
+        <v>1.099268774216149</v>
       </c>
       <c r="L21">
-        <v>1.019512972357149</v>
+        <v>1.092951751426598</v>
       </c>
       <c r="M21">
-        <v>1.025370017361798</v>
+        <v>1.10648649959068</v>
       </c>
       <c r="N21">
-        <v>1.020694202134556</v>
+        <v>1.093702675876245</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9805478260085956</v>
+        <v>1.084578918082301</v>
       </c>
       <c r="D22">
-        <v>0.998054530857703</v>
+        <v>1.094612463511199</v>
       </c>
       <c r="E22">
-        <v>0.9969272061838774</v>
+        <v>1.088352749137761</v>
       </c>
       <c r="F22">
-        <v>1.002233829317097</v>
+        <v>1.101817962584928</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037930634548732</v>
+        <v>1.047400706162709</v>
       </c>
       <c r="J22">
-        <v>1.012166190080407</v>
+        <v>1.091063534596851</v>
       </c>
       <c r="K22">
-        <v>1.013664626640698</v>
+        <v>1.098108427590563</v>
       </c>
       <c r="L22">
-        <v>1.012559782483991</v>
+        <v>1.09187027134551</v>
       </c>
       <c r="M22">
-        <v>1.017761163120897</v>
+        <v>1.105289444587298</v>
       </c>
       <c r="N22">
-        <v>1.013603582167406</v>
+        <v>1.092612969962715</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9852303359003507</v>
+        <v>1.085282782414362</v>
       </c>
       <c r="D23">
-        <v>1.002438399116166</v>
+        <v>1.095294350503609</v>
       </c>
       <c r="E23">
-        <v>1.001043394131169</v>
+        <v>1.088993126926664</v>
       </c>
       <c r="F23">
-        <v>1.006703898637542</v>
+        <v>1.102518848433047</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039237745289153</v>
+        <v>1.047553504113009</v>
       </c>
       <c r="J23">
-        <v>1.015956828593822</v>
+        <v>1.091640763233616</v>
       </c>
       <c r="K23">
-        <v>1.017650009657251</v>
+        <v>1.09872390570254</v>
       </c>
       <c r="L23">
-        <v>1.016281876509176</v>
+        <v>1.092443932534641</v>
       </c>
       <c r="M23">
-        <v>1.021833947496597</v>
+        <v>1.105924367534182</v>
       </c>
       <c r="N23">
-        <v>1.017399603822303</v>
+        <v>1.093191018330353</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00271014213899</v>
+        <v>1.088046179286267</v>
       </c>
       <c r="D24">
-        <v>1.018828274768775</v>
+        <v>1.097972028465745</v>
       </c>
       <c r="E24">
-        <v>1.016436351851426</v>
+        <v>1.091507614001093</v>
       </c>
       <c r="F24">
-        <v>1.023420862984644</v>
+        <v>1.105271641820969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044089552222698</v>
+        <v>1.048148991152172</v>
       </c>
       <c r="J24">
-        <v>1.030104265014054</v>
+        <v>1.093905055861148</v>
       </c>
       <c r="K24">
-        <v>1.032532620358255</v>
+        <v>1.101139179877064</v>
       </c>
       <c r="L24">
-        <v>1.030180846622644</v>
+        <v>1.094694754519826</v>
       </c>
       <c r="M24">
-        <v>1.037048797679668</v>
+        <v>1.108416528107639</v>
       </c>
       <c r="N24">
-        <v>1.031567131224985</v>
+        <v>1.095458526513134</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.021340798462016</v>
+        <v>1.091237806185844</v>
       </c>
       <c r="D25">
-        <v>1.03633935063193</v>
+        <v>1.10106579380668</v>
       </c>
       <c r="E25">
-        <v>1.032888099497801</v>
+        <v>1.094412431307</v>
       </c>
       <c r="F25">
-        <v>1.041290950890278</v>
+        <v>1.108453247130737</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049199855930597</v>
+        <v>1.048827640258023</v>
       </c>
       <c r="J25">
-        <v>1.04517070226639</v>
+        <v>1.096516233684216</v>
       </c>
       <c r="K25">
-        <v>1.04839857038921</v>
+        <v>1.103926412677228</v>
       </c>
       <c r="L25">
-        <v>1.0449964549144</v>
+        <v>1.097291476923027</v>
       </c>
       <c r="M25">
-        <v>1.05328039285323</v>
+        <v>1.11129368676199</v>
       </c>
       <c r="N25">
-        <v>1.046654964546363</v>
+        <v>1.098073412508217</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.093771920020204</v>
+        <v>1.035121145933514</v>
       </c>
       <c r="D2">
-        <v>1.103523098914172</v>
+        <v>1.04931884192661</v>
       </c>
       <c r="E2">
-        <v>1.09671933217123</v>
+        <v>1.045085471824596</v>
       </c>
       <c r="F2">
-        <v>1.110981167979094</v>
+        <v>1.054544045570127</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049359121094061</v>
+        <v>1.052926929484579</v>
       </c>
       <c r="J2">
-        <v>1.098586239806329</v>
+        <v>1.056299836753477</v>
       </c>
       <c r="K2">
-        <v>1.106137551252725</v>
+        <v>1.060131326391985</v>
       </c>
       <c r="L2">
-        <v>1.099350889984954</v>
+        <v>1.055950493572625</v>
       </c>
       <c r="M2">
-        <v>1.113577128896065</v>
+        <v>1.065292406903615</v>
       </c>
       <c r="N2">
-        <v>1.100146358276456</v>
+        <v>1.057799903680951</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.09560557136484</v>
+        <v>1.044599878447632</v>
       </c>
       <c r="D3">
-        <v>1.105301676400755</v>
+        <v>1.058259978785856</v>
       </c>
       <c r="E3">
-        <v>1.098388855592123</v>
+        <v>1.053489007123602</v>
       </c>
       <c r="F3">
-        <v>1.11281134670521</v>
+        <v>1.063677950655497</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049739421189455</v>
+        <v>1.055458318947371</v>
       </c>
       <c r="J3">
-        <v>1.100082184469998</v>
+        <v>1.063944376229262</v>
       </c>
       <c r="K3">
-        <v>1.107736396463868</v>
+        <v>1.068197971999662</v>
       </c>
       <c r="L3">
-        <v>1.100839680383622</v>
+        <v>1.063480344523797</v>
       </c>
       <c r="M3">
-        <v>1.115228814501649</v>
+        <v>1.073556078539857</v>
       </c>
       <c r="N3">
-        <v>1.101644427353136</v>
+        <v>1.065455299279633</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.096789243614594</v>
+        <v>1.05051639153227</v>
       </c>
       <c r="D4">
-        <v>1.10645002574066</v>
+        <v>1.063846389181165</v>
       </c>
       <c r="E4">
-        <v>1.099466703382474</v>
+        <v>1.058739903274034</v>
       </c>
       <c r="F4">
-        <v>1.113993239271897</v>
+        <v>1.069386778892937</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049982936447796</v>
+        <v>1.057022953208084</v>
       </c>
       <c r="J4">
-        <v>1.101046983498589</v>
+        <v>1.068710572092628</v>
       </c>
       <c r="K4">
-        <v>1.108767980415643</v>
+        <v>1.073230792895385</v>
       </c>
       <c r="L4">
-        <v>1.101800096800784</v>
+        <v>1.068177539716058</v>
       </c>
       <c r="M4">
-        <v>1.116294749700577</v>
+        <v>1.078714127648794</v>
       </c>
       <c r="N4">
-        <v>1.102610596507011</v>
+        <v>1.070228263687815</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.097286199363747</v>
+        <v>1.052955315737486</v>
       </c>
       <c r="D5">
-        <v>1.106932205569278</v>
+        <v>1.06615045829575</v>
       </c>
       <c r="E5">
-        <v>1.099919258624457</v>
+        <v>1.060905661432582</v>
       </c>
       <c r="F5">
-        <v>1.114489557772938</v>
+        <v>1.071741811922297</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050084700294026</v>
+        <v>1.0576641562998</v>
       </c>
       <c r="J5">
-        <v>1.101451837286973</v>
+        <v>1.070673930468381</v>
       </c>
       <c r="K5">
-        <v>1.109200959408902</v>
+        <v>1.075304811529266</v>
       </c>
       <c r="L5">
-        <v>1.102203166919671</v>
+        <v>1.070113066161617</v>
       </c>
       <c r="M5">
-        <v>1.116742208526509</v>
+        <v>1.080840303028357</v>
       </c>
       <c r="N5">
-        <v>1.103016025234212</v>
+        <v>1.072194410257663</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.09736960216833</v>
+        <v>1.053362080957628</v>
       </c>
       <c r="D6">
-        <v>1.107013131725524</v>
+        <v>1.066534801702293</v>
       </c>
       <c r="E6">
-        <v>1.09999521149011</v>
+        <v>1.061266936565219</v>
       </c>
       <c r="F6">
-        <v>1.114572860058335</v>
+        <v>1.072134684508095</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050101751236428</v>
+        <v>1.05777087237003</v>
       </c>
       <c r="J6">
-        <v>1.101519770545437</v>
+        <v>1.071001297413892</v>
       </c>
       <c r="K6">
-        <v>1.109273617893696</v>
+        <v>1.075650678521149</v>
       </c>
       <c r="L6">
-        <v>1.102270804131172</v>
+        <v>1.07043582703146</v>
       </c>
       <c r="M6">
-        <v>1.116817300508385</v>
+        <v>1.081194900096922</v>
       </c>
       <c r="N6">
-        <v>1.103084054965695</v>
+        <v>1.072522242101786</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.096795886533728</v>
+        <v>1.050549166247138</v>
       </c>
       <c r="D7">
-        <v>1.106456470934775</v>
+        <v>1.063877346961817</v>
       </c>
       <c r="E7">
-        <v>1.099472752676711</v>
+        <v>1.05876900244345</v>
       </c>
       <c r="F7">
-        <v>1.113999873241479</v>
+        <v>1.069418419555559</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049984298612604</v>
+        <v>1.057031584868283</v>
       </c>
       <c r="J7">
-        <v>1.101052396095065</v>
+        <v>1.068736961621005</v>
       </c>
       <c r="K7">
-        <v>1.108773768629807</v>
+        <v>1.073258666526067</v>
       </c>
       <c r="L7">
-        <v>1.10180548533319</v>
+        <v>1.068203552820702</v>
       </c>
       <c r="M7">
-        <v>1.116300731243058</v>
+        <v>1.078742700057793</v>
       </c>
       <c r="N7">
-        <v>1.102616016789995</v>
+        <v>1.07025469069235</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.094392205051339</v>
+        <v>1.038371684250831</v>
       </c>
       <c r="D8">
-        <v>1.104124705806202</v>
+        <v>1.052383808467507</v>
       </c>
       <c r="E8">
-        <v>1.097284069938292</v>
+        <v>1.047966057623777</v>
       </c>
       <c r="F8">
-        <v>1.111600182084229</v>
+        <v>1.057674672895642</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049488178636169</v>
+        <v>1.05379824048228</v>
       </c>
       <c r="J8">
-        <v>1.099092466970454</v>
+        <v>1.058922479724378</v>
       </c>
       <c r="K8">
-        <v>1.106678512808549</v>
+        <v>1.06289805101739</v>
       </c>
       <c r="L8">
-        <v>1.099854648089623</v>
+        <v>1.058533252511766</v>
       </c>
       <c r="M8">
-        <v>1.114135915148425</v>
+        <v>1.068126218583492</v>
       </c>
       <c r="N8">
-        <v>1.10065330434122</v>
+        <v>1.060426271105692</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.090134283863673</v>
+        <v>1.01507038073689</v>
       </c>
       <c r="D9">
-        <v>1.099995967472548</v>
+        <v>1.030440974397171</v>
       </c>
       <c r="E9">
-        <v>1.093407993699381</v>
+        <v>1.027345956262896</v>
       </c>
       <c r="F9">
-        <v>1.107352914299869</v>
+        <v>1.035270435350647</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048594134221807</v>
+        <v>1.047488132185255</v>
       </c>
       <c r="J9">
-        <v>1.095613906090884</v>
+        <v>1.040101963175466</v>
       </c>
       <c r="K9">
-        <v>1.102963003940098</v>
+        <v>1.043058746467506</v>
       </c>
       <c r="L9">
-        <v>1.096394009922563</v>
+        <v>1.040010414832398</v>
       </c>
       <c r="M9">
-        <v>1.110299045348919</v>
+        <v>1.047816066804932</v>
       </c>
       <c r="N9">
-        <v>1.097169803506205</v>
+        <v>1.041579027264538</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.087279663656874</v>
+        <v>0.9979973876789536</v>
       </c>
       <c r="D10">
-        <v>1.09722919880705</v>
+        <v>1.014405558182521</v>
       </c>
       <c r="E10">
-        <v>1.090810087071864</v>
+        <v>1.012282084190452</v>
       </c>
       <c r="F10">
-        <v>1.104507891268124</v>
+        <v>1.018909094581133</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047984529558414</v>
+        <v>1.042786205388486</v>
       </c>
       <c r="J10">
-        <v>1.093277296202349</v>
+        <v>1.026290686214454</v>
       </c>
       <c r="K10">
-        <v>1.100469408827325</v>
+        <v>1.028519497466028</v>
       </c>
       <c r="L10">
-        <v>1.094070644560377</v>
+        <v>1.026433067107124</v>
       </c>
       <c r="M10">
-        <v>1.107725341703821</v>
+        <v>1.032945131083934</v>
       </c>
       <c r="N10">
-        <v>1.094829875363615</v>
+        <v>1.027748136706065</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.086039562675418</v>
+        <v>0.9901558151094</v>
       </c>
       <c r="D11">
-        <v>1.096027566023009</v>
+        <v>1.007052809677122</v>
       </c>
       <c r="E11">
-        <v>1.089681687140609</v>
+        <v>1.005376537037737</v>
       </c>
       <c r="F11">
-        <v>1.103272551004686</v>
+        <v>1.011409607542124</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04771728776628</v>
+        <v>1.040609560815148</v>
       </c>
       <c r="J11">
-        <v>1.092261168003457</v>
+        <v>1.019943936547409</v>
       </c>
       <c r="K11">
-        <v>1.099385528185156</v>
+        <v>1.021842934817294</v>
       </c>
       <c r="L11">
-        <v>1.093060562723907</v>
+        <v>1.020197767060875</v>
       </c>
       <c r="M11">
-        <v>1.106606958876841</v>
+        <v>1.026119515964775</v>
       </c>
       <c r="N11">
-        <v>1.093812304146129</v>
+        <v>1.021392373926511</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.08557830898608</v>
+        <v>0.9871668932723127</v>
       </c>
       <c r="D12">
-        <v>1.095580666907205</v>
+        <v>1.004252279688753</v>
       </c>
       <c r="E12">
-        <v>1.089262008369981</v>
+        <v>1.002746652451113</v>
       </c>
       <c r="F12">
-        <v>1.102813157708313</v>
+        <v>1.00855359731822</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047617524705941</v>
+        <v>1.039777501290787</v>
       </c>
       <c r="J12">
-        <v>1.091883061716865</v>
+        <v>1.017524481565132</v>
       </c>
       <c r="K12">
-        <v>1.098982288419987</v>
+        <v>1.019298463669333</v>
       </c>
       <c r="L12">
-        <v>1.092684749452861</v>
+        <v>1.017821419443693</v>
       </c>
       <c r="M12">
-        <v>1.106190930987332</v>
+        <v>1.02351873837833</v>
       </c>
       <c r="N12">
-        <v>1.093433660905241</v>
+        <v>1.018969483040644</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.08567727806106</v>
+        <v>0.9878116350514291</v>
       </c>
       <c r="D13">
-        <v>1.095676553877099</v>
+        <v>1.004856286026129</v>
       </c>
       <c r="E13">
-        <v>1.089352055631184</v>
+        <v>1.003313839533769</v>
       </c>
       <c r="F13">
-        <v>1.102911723538719</v>
+        <v>1.009169550865784</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047638946816537</v>
+        <v>1.039957090674174</v>
       </c>
       <c r="J13">
-        <v>1.09196419742137</v>
+        <v>1.018046393798381</v>
       </c>
       <c r="K13">
-        <v>1.099068813868815</v>
+        <v>1.019847311552397</v>
       </c>
       <c r="L13">
-        <v>1.092765391159572</v>
+        <v>1.018334004265734</v>
       </c>
       <c r="M13">
-        <v>1.106280198291952</v>
+        <v>1.024079709074244</v>
       </c>
       <c r="N13">
-        <v>1.093514911831753</v>
+        <v>1.019492136449128</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.086001448163006</v>
+        <v>0.9899103612937117</v>
       </c>
       <c r="D14">
-        <v>1.095990636713743</v>
+        <v>1.006822783518875</v>
       </c>
       <c r="E14">
-        <v>1.089647007491138</v>
+        <v>1.00516052040148</v>
       </c>
       <c r="F14">
-        <v>1.103234588388474</v>
+        <v>1.011175016111704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047709051499426</v>
+        <v>1.040541278670885</v>
       </c>
       <c r="J14">
-        <v>1.092229927401227</v>
+        <v>1.019745253017797</v>
       </c>
       <c r="K14">
-        <v>1.099352209377019</v>
+        <v>1.021633970632897</v>
       </c>
       <c r="L14">
-        <v>1.09302951069967</v>
+        <v>1.020002610721674</v>
       </c>
       <c r="M14">
-        <v>1.106572582438762</v>
+        <v>1.025905917494287</v>
       </c>
       <c r="N14">
-        <v>1.093781019178661</v>
+        <v>1.021193408243498</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.086201096667081</v>
+        <v>0.9911930662599924</v>
       </c>
       <c r="D15">
-        <v>1.096184078880895</v>
+        <v>1.008024951166171</v>
       </c>
       <c r="E15">
-        <v>1.089828664906976</v>
+        <v>1.006289484288099</v>
       </c>
       <c r="F15">
-        <v>1.103433444915599</v>
+        <v>1.012401059513182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047752179228125</v>
+        <v>1.040898014649924</v>
       </c>
       <c r="J15">
-        <v>1.092393563015594</v>
+        <v>1.020783532278251</v>
       </c>
       <c r="K15">
-        <v>1.099526733629983</v>
+        <v>1.022726003371958</v>
       </c>
       <c r="L15">
-        <v>1.093192160324141</v>
+        <v>1.02102248296967</v>
       </c>
       <c r="M15">
-        <v>1.106752648526062</v>
+        <v>1.027022188941258</v>
       </c>
       <c r="N15">
-        <v>1.09394488717437</v>
+        <v>1.022233161979595</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.087361878494166</v>
+        <v>0.9985076373119595</v>
       </c>
       <c r="D16">
-        <v>1.097308869778544</v>
+        <v>1.014884270499055</v>
       </c>
       <c r="E16">
-        <v>1.090884900334464</v>
+        <v>1.012731720593837</v>
       </c>
       <c r="F16">
-        <v>1.104589802997924</v>
+        <v>1.019397416504653</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048002196012501</v>
+        <v>1.042927501323497</v>
       </c>
       <c r="J16">
-        <v>1.093344640057809</v>
+        <v>1.026703615577232</v>
       </c>
       <c r="K16">
-        <v>1.100541253829041</v>
+        <v>1.028953982226695</v>
       </c>
       <c r="L16">
-        <v>1.094137593728649</v>
+        <v>1.026838828834756</v>
       </c>
       <c r="M16">
-        <v>1.107799480379393</v>
+        <v>1.033389383323039</v>
       </c>
       <c r="N16">
-        <v>1.094897314855073</v>
+        <v>1.028161652475902</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.088088913360699</v>
+        <v>1.002969995429966</v>
       </c>
       <c r="D17">
-        <v>1.098013444090497</v>
+        <v>1.019072216947518</v>
       </c>
       <c r="E17">
-        <v>1.091546503105616</v>
+        <v>1.016665498643763</v>
       </c>
       <c r="F17">
-        <v>1.105314225766705</v>
+        <v>1.023669734886857</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048158143603267</v>
+        <v>1.044161303690888</v>
       </c>
       <c r="J17">
-        <v>1.093940046919861</v>
+        <v>1.030314517595037</v>
       </c>
       <c r="K17">
-        <v>1.101176516144986</v>
+        <v>1.032753905498489</v>
       </c>
       <c r="L17">
-        <v>1.094729544096421</v>
+        <v>1.030387497633065</v>
       </c>
       <c r="M17">
-        <v>1.108455060336619</v>
+        <v>1.037275097001924</v>
       </c>
       <c r="N17">
-        <v>1.095493567263164</v>
+        <v>1.031777682388748</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.088512592819958</v>
+        <v>1.005530176066226</v>
       </c>
       <c r="D18">
-        <v>1.098424063873489</v>
+        <v>1.021476085794379</v>
       </c>
       <c r="E18">
-        <v>1.091932069279172</v>
+        <v>1.018923631580341</v>
       </c>
       <c r="F18">
-        <v>1.105736439936995</v>
+        <v>1.026122285142612</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048248789159975</v>
+        <v>1.044867570834186</v>
       </c>
       <c r="J18">
-        <v>1.094286918007205</v>
+        <v>1.032385875780133</v>
       </c>
       <c r="K18">
-        <v>1.101546655829505</v>
+        <v>1.034934132372022</v>
       </c>
       <c r="L18">
-        <v>1.095074429090797</v>
+        <v>1.032423522083896</v>
       </c>
       <c r="M18">
-        <v>1.108837068861887</v>
+        <v>1.039504849652224</v>
       </c>
       <c r="N18">
-        <v>1.09584093094724</v>
+        <v>1.033851982140056</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.088656991389469</v>
+        <v>1.006396140461951</v>
       </c>
       <c r="D19">
-        <v>1.098564016371872</v>
+        <v>1.022289363675986</v>
       </c>
       <c r="E19">
-        <v>1.092063480967502</v>
+        <v>1.019687628987509</v>
       </c>
       <c r="F19">
-        <v>1.105880348735639</v>
+        <v>1.026952075635609</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048279643495691</v>
+        <v>1.04510618530147</v>
       </c>
       <c r="J19">
-        <v>1.09440512137991</v>
+        <v>1.033086440237691</v>
       </c>
       <c r="K19">
-        <v>1.101672796875942</v>
+        <v>1.035671592136848</v>
       </c>
       <c r="L19">
-        <v>1.095191960338989</v>
+        <v>1.033112197443927</v>
       </c>
       <c r="M19">
-        <v>1.108967259922876</v>
+        <v>1.04025911265678</v>
       </c>
       <c r="N19">
-        <v>1.095959302182292</v>
+        <v>1.0345535414795</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.088010949638509</v>
+        <v>1.002495695128836</v>
       </c>
       <c r="D20">
-        <v>1.097937885902566</v>
+        <v>1.018626964958518</v>
       </c>
       <c r="E20">
-        <v>1.091475554214663</v>
+        <v>1.016247252601807</v>
       </c>
       <c r="F20">
-        <v>1.105236536259042</v>
+        <v>1.023215486421864</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048141444627208</v>
+        <v>1.044030329363707</v>
       </c>
       <c r="J20">
-        <v>1.093876208920672</v>
+        <v>1.029930749747451</v>
       </c>
       <c r="K20">
-        <v>1.101108399805443</v>
+        <v>1.032350002735582</v>
       </c>
       <c r="L20">
-        <v>1.094666073838598</v>
+        <v>1.030010305700138</v>
       </c>
       <c r="M20">
-        <v>1.108384762256844</v>
+        <v>1.036862043776818</v>
       </c>
       <c r="N20">
-        <v>1.095429638606694</v>
+        <v>1.031393369546801</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.085906005555755</v>
+        <v>0.9892945213755414</v>
       </c>
       <c r="D21">
-        <v>1.095898162727067</v>
+        <v>1.006245685418236</v>
       </c>
       <c r="E21">
-        <v>1.08956016658252</v>
+        <v>1.004618575162014</v>
       </c>
       <c r="F21">
-        <v>1.103139527595172</v>
+        <v>1.010586471077957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047688421192647</v>
+        <v>1.040369921845032</v>
       </c>
       <c r="J21">
-        <v>1.092151695197514</v>
+        <v>1.019246754833453</v>
       </c>
       <c r="K21">
-        <v>1.099268774216149</v>
+        <v>1.021109689671642</v>
       </c>
       <c r="L21">
-        <v>1.092951751426598</v>
+        <v>1.019512972357147</v>
       </c>
       <c r="M21">
-        <v>1.10648649959068</v>
+        <v>1.025370017361796</v>
       </c>
       <c r="N21">
-        <v>1.093702675876245</v>
+        <v>1.020694202134554</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.084578918082301</v>
+        <v>0.9805478260085937</v>
       </c>
       <c r="D22">
-        <v>1.094612463511199</v>
+        <v>0.998054530857701</v>
       </c>
       <c r="E22">
-        <v>1.088352749137761</v>
+        <v>0.9969272061838756</v>
       </c>
       <c r="F22">
-        <v>1.101817962584928</v>
+        <v>1.002233829317095</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047400706162709</v>
+        <v>1.037930634548732</v>
       </c>
       <c r="J22">
-        <v>1.091063534596851</v>
+        <v>1.012166190080406</v>
       </c>
       <c r="K22">
-        <v>1.098108427590563</v>
+        <v>1.013664626640697</v>
       </c>
       <c r="L22">
-        <v>1.09187027134551</v>
+        <v>1.012559782483989</v>
       </c>
       <c r="M22">
-        <v>1.105289444587298</v>
+        <v>1.017761163120895</v>
       </c>
       <c r="N22">
-        <v>1.092612969962715</v>
+        <v>1.013603582167404</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.085282782414362</v>
+        <v>0.9852303359003528</v>
       </c>
       <c r="D23">
-        <v>1.095294350503609</v>
+        <v>1.002438399116168</v>
       </c>
       <c r="E23">
-        <v>1.088993126926664</v>
+        <v>1.001043394131171</v>
       </c>
       <c r="F23">
-        <v>1.102518848433047</v>
+        <v>1.006703898637544</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047553504113009</v>
+        <v>1.039237745289153</v>
       </c>
       <c r="J23">
-        <v>1.091640763233616</v>
+        <v>1.015956828593825</v>
       </c>
       <c r="K23">
-        <v>1.09872390570254</v>
+        <v>1.017650009657253</v>
       </c>
       <c r="L23">
-        <v>1.092443932534641</v>
+        <v>1.016281876509178</v>
       </c>
       <c r="M23">
-        <v>1.105924367534182</v>
+        <v>1.021833947496599</v>
       </c>
       <c r="N23">
-        <v>1.093191018330353</v>
+        <v>1.017399603822305</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.088046179286267</v>
+        <v>1.002710142138987</v>
       </c>
       <c r="D24">
-        <v>1.097972028465745</v>
+        <v>1.018828274768773</v>
       </c>
       <c r="E24">
-        <v>1.091507614001093</v>
+        <v>1.016436351851424</v>
       </c>
       <c r="F24">
-        <v>1.105271641820969</v>
+        <v>1.023420862984642</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048148991152172</v>
+        <v>1.044089552222698</v>
       </c>
       <c r="J24">
-        <v>1.093905055861148</v>
+        <v>1.030104265014052</v>
       </c>
       <c r="K24">
-        <v>1.101139179877064</v>
+        <v>1.032532620358253</v>
       </c>
       <c r="L24">
-        <v>1.094694754519826</v>
+        <v>1.030180846622642</v>
       </c>
       <c r="M24">
-        <v>1.108416528107639</v>
+        <v>1.037048797679666</v>
       </c>
       <c r="N24">
-        <v>1.095458526513134</v>
+        <v>1.031567131224983</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.091237806185844</v>
+        <v>1.021340798462015</v>
       </c>
       <c r="D25">
-        <v>1.10106579380668</v>
+        <v>1.036339350631929</v>
       </c>
       <c r="E25">
-        <v>1.094412431307</v>
+        <v>1.0328880994978</v>
       </c>
       <c r="F25">
-        <v>1.108453247130737</v>
+        <v>1.041290950890277</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048827640258023</v>
+        <v>1.049199855930597</v>
       </c>
       <c r="J25">
-        <v>1.096516233684216</v>
+        <v>1.045170702266389</v>
       </c>
       <c r="K25">
-        <v>1.103926412677228</v>
+        <v>1.048398570389209</v>
       </c>
       <c r="L25">
-        <v>1.097291476923027</v>
+        <v>1.0449964549144</v>
       </c>
       <c r="M25">
-        <v>1.11129368676199</v>
+        <v>1.053280392853229</v>
       </c>
       <c r="N25">
-        <v>1.098073412508217</v>
+        <v>1.046654964546363</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035121145933514</v>
+        <v>0.9892991808996929</v>
       </c>
       <c r="D2">
-        <v>1.04931884192661</v>
+        <v>1.010121123285443</v>
       </c>
       <c r="E2">
-        <v>1.045085471824596</v>
+        <v>0.9964494832584748</v>
       </c>
       <c r="F2">
-        <v>1.054544045570127</v>
+        <v>1.020567375092901</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052926929484579</v>
+        <v>1.046366845954503</v>
       </c>
       <c r="J2">
-        <v>1.056299836753477</v>
+        <v>1.011804731255983</v>
       </c>
       <c r="K2">
-        <v>1.060131326391985</v>
+        <v>1.021441232853523</v>
       </c>
       <c r="L2">
-        <v>1.055950493572625</v>
+        <v>1.007958505050291</v>
       </c>
       <c r="M2">
-        <v>1.065292406903615</v>
+        <v>1.031747421259021</v>
       </c>
       <c r="N2">
-        <v>1.057799903680951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.006184868369534</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.033698312287123</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.026230786933144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044599878447632</v>
+        <v>0.9951349562248993</v>
       </c>
       <c r="D3">
-        <v>1.058259978785856</v>
+        <v>1.014523513024085</v>
       </c>
       <c r="E3">
-        <v>1.053489007123602</v>
+        <v>1.001281591740281</v>
       </c>
       <c r="F3">
-        <v>1.063677950655497</v>
+        <v>1.024686055609122</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055458318947371</v>
+        <v>1.046677571785442</v>
       </c>
       <c r="J3">
-        <v>1.063944376229262</v>
+        <v>1.015759131636747</v>
       </c>
       <c r="K3">
-        <v>1.068197971999662</v>
+        <v>1.024973875094439</v>
       </c>
       <c r="L3">
-        <v>1.063480344523797</v>
+        <v>1.011898100583103</v>
       </c>
       <c r="M3">
-        <v>1.073556078539857</v>
+        <v>1.035012524276382</v>
       </c>
       <c r="N3">
-        <v>1.065455299279633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.007706635752281</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.036282442362802</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.028726054995666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05051639153227</v>
+        <v>0.9988216900327599</v>
       </c>
       <c r="D4">
-        <v>1.063846389181165</v>
+        <v>1.017311431496286</v>
       </c>
       <c r="E4">
-        <v>1.058739903274034</v>
+        <v>1.004339450860281</v>
       </c>
       <c r="F4">
-        <v>1.069386778892937</v>
+        <v>1.027292877605373</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057022953208084</v>
+        <v>1.046855294958931</v>
       </c>
       <c r="J4">
-        <v>1.068710572092628</v>
+        <v>1.018255585201549</v>
       </c>
       <c r="K4">
-        <v>1.073230792895385</v>
+        <v>1.027205317772354</v>
       </c>
       <c r="L4">
-        <v>1.068177539716058</v>
+        <v>1.014385783164451</v>
       </c>
       <c r="M4">
-        <v>1.078714127648794</v>
+        <v>1.037072693532546</v>
       </c>
       <c r="N4">
-        <v>1.070228263687815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008664515371778</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.03791293594384</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.030304836274874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052955315737486</v>
+        <v>1.000360948530785</v>
       </c>
       <c r="D5">
-        <v>1.06615045829575</v>
+        <v>1.018479896384908</v>
       </c>
       <c r="E5">
-        <v>1.060905661432582</v>
+        <v>1.005618446728774</v>
       </c>
       <c r="F5">
-        <v>1.071741811922297</v>
+        <v>1.028383549363172</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0576641562998</v>
+        <v>1.04692551856917</v>
       </c>
       <c r="J5">
-        <v>1.070673930468381</v>
+        <v>1.019300336048472</v>
       </c>
       <c r="K5">
-        <v>1.075304811529266</v>
+        <v>1.028141146294966</v>
       </c>
       <c r="L5">
-        <v>1.070113066161617</v>
+        <v>1.015426620794172</v>
       </c>
       <c r="M5">
-        <v>1.080840303028357</v>
+        <v>1.0379347417508</v>
       </c>
       <c r="N5">
-        <v>1.072194410257663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009065808391248</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038595191444563</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.030973824864652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053362080957628</v>
+        <v>1.000630169956607</v>
       </c>
       <c r="D6">
-        <v>1.066534801702293</v>
+        <v>1.018687905924042</v>
       </c>
       <c r="E6">
-        <v>1.061266936565219</v>
+        <v>1.005843576607091</v>
       </c>
       <c r="F6">
-        <v>1.072134684508095</v>
+        <v>1.028575878160699</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05777087237003</v>
+        <v>1.046938270978361</v>
       </c>
       <c r="J6">
-        <v>1.071001297413892</v>
+        <v>1.01948658318324</v>
       </c>
       <c r="K6">
-        <v>1.075650678521149</v>
+        <v>1.028310035527066</v>
       </c>
       <c r="L6">
-        <v>1.07043582703146</v>
+        <v>1.015611727000871</v>
       </c>
       <c r="M6">
-        <v>1.081194900096922</v>
+        <v>1.038088647965617</v>
       </c>
       <c r="N6">
-        <v>1.072522242101786</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009138683920576</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.038716998207128</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.031102097374095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050549166247138</v>
+        <v>0.9988748609090647</v>
       </c>
       <c r="D7">
-        <v>1.063877346961817</v>
+        <v>1.017361347691794</v>
       </c>
       <c r="E7">
-        <v>1.05876900244345</v>
+        <v>1.00438735080615</v>
       </c>
       <c r="F7">
-        <v>1.069418419555559</v>
+        <v>1.027334633456051</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057031584868283</v>
+        <v>1.046859763256181</v>
       </c>
       <c r="J7">
-        <v>1.068736961621005</v>
+        <v>1.01830129046851</v>
       </c>
       <c r="K7">
-        <v>1.073258666526067</v>
+        <v>1.027251723961197</v>
       </c>
       <c r="L7">
-        <v>1.068203552820702</v>
+        <v>1.014430127441654</v>
       </c>
       <c r="M7">
-        <v>1.078742700057793</v>
+        <v>1.03711108333044</v>
       </c>
       <c r="N7">
-        <v>1.07025469069235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008685864468851</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.037943319003831</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03035802008608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038371684250831</v>
+        <v>0.9913329682325828</v>
       </c>
       <c r="D8">
-        <v>1.052383808467507</v>
+        <v>1.011666088568036</v>
       </c>
       <c r="E8">
-        <v>1.047966057623777</v>
+        <v>0.9981373953132656</v>
       </c>
       <c r="F8">
-        <v>1.057674672895642</v>
+        <v>1.022006990685317</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05379824048228</v>
+        <v>1.046481326040338</v>
       </c>
       <c r="J8">
-        <v>1.058922479724378</v>
+        <v>1.013195605116205</v>
       </c>
       <c r="K8">
-        <v>1.06289805101739</v>
+        <v>1.022690320448629</v>
       </c>
       <c r="L8">
-        <v>1.058533252511766</v>
+        <v>1.009342656015446</v>
       </c>
       <c r="M8">
-        <v>1.068126218583492</v>
+        <v>1.032896891422193</v>
       </c>
       <c r="N8">
-        <v>1.060426271105692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.006725764394918</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.03460804895573</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.027137302046636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01507038073689</v>
+        <v>0.9772566715589686</v>
       </c>
       <c r="D9">
-        <v>1.030440974397171</v>
+        <v>1.001078598937122</v>
       </c>
       <c r="E9">
-        <v>1.027345956262896</v>
+        <v>0.9865110741422176</v>
       </c>
       <c r="F9">
-        <v>1.035270435350647</v>
+        <v>1.012101643535509</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047488132185255</v>
+        <v>1.045627629914965</v>
       </c>
       <c r="J9">
-        <v>1.040101963175466</v>
+        <v>1.003638933813695</v>
       </c>
       <c r="K9">
-        <v>1.043058746467506</v>
+        <v>1.014154200831668</v>
       </c>
       <c r="L9">
-        <v>1.040010414832398</v>
+        <v>0.9998268577817832</v>
       </c>
       <c r="M9">
-        <v>1.047816066804932</v>
+        <v>1.025001384514694</v>
       </c>
       <c r="N9">
-        <v>1.041579027264538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.003028697718469</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.028359205094394</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.021098209585558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9979973876789536</v>
+        <v>0.967466485745302</v>
       </c>
       <c r="D10">
-        <v>1.014405558182521</v>
+        <v>0.9937945713025107</v>
       </c>
       <c r="E10">
-        <v>1.012282084190452</v>
+        <v>0.9784806556396809</v>
       </c>
       <c r="F10">
-        <v>1.018909094581133</v>
+        <v>1.00533439271776</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042786205388486</v>
+        <v>1.044960172609112</v>
       </c>
       <c r="J10">
-        <v>1.026290686214454</v>
+        <v>0.9970331130146861</v>
       </c>
       <c r="K10">
-        <v>1.028519497466028</v>
+        <v>1.008276777920629</v>
       </c>
       <c r="L10">
-        <v>1.026433067107124</v>
+        <v>0.9932496310940467</v>
       </c>
       <c r="M10">
-        <v>1.032945131083934</v>
+        <v>1.019607996407275</v>
       </c>
       <c r="N10">
-        <v>1.027748136706065</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.000480140328741</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.024142962208162</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.01695949422492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9901558151094</v>
+        <v>0.9643313378394542</v>
       </c>
       <c r="D11">
-        <v>1.007052809677122</v>
+        <v>0.9917387621843452</v>
       </c>
       <c r="E11">
-        <v>1.005376537037737</v>
+        <v>0.9760816608310645</v>
       </c>
       <c r="F11">
-        <v>1.011409607542124</v>
+        <v>1.003837713997719</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040609560815148</v>
+        <v>1.044856255437012</v>
       </c>
       <c r="J11">
-        <v>1.019943936547409</v>
+        <v>0.9952671248698414</v>
       </c>
       <c r="K11">
-        <v>1.021842934817294</v>
+        <v>1.006818173295457</v>
       </c>
       <c r="L11">
-        <v>1.020197767060875</v>
+        <v>0.9914691918114812</v>
       </c>
       <c r="M11">
-        <v>1.026119515964775</v>
+        <v>1.018687617747567</v>
       </c>
       <c r="N11">
-        <v>1.021392373926511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9999609190380718</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023858270558362</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.015961835862802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9871668932723127</v>
+        <v>0.9636197823555747</v>
       </c>
       <c r="D12">
-        <v>1.004252279688753</v>
+        <v>0.9914032299144885</v>
       </c>
       <c r="E12">
-        <v>1.002746652451113</v>
+        <v>0.9756310972697574</v>
       </c>
       <c r="F12">
-        <v>1.00855359731822</v>
+        <v>1.00383767033927</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039777501290787</v>
+        <v>1.044898790576162</v>
       </c>
       <c r="J12">
-        <v>1.017524481565132</v>
+        <v>0.9950478110331489</v>
       </c>
       <c r="K12">
-        <v>1.019298463669333</v>
+        <v>1.006697004813694</v>
       </c>
       <c r="L12">
-        <v>1.017821419443693</v>
+        <v>0.9912405479686398</v>
       </c>
       <c r="M12">
-        <v>1.02351873837833</v>
+        <v>1.018891714130038</v>
       </c>
       <c r="N12">
-        <v>1.018969483040644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.000011349054661</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.024351058437076</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.015876161568069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9878116350514291</v>
+        <v>0.9647761872405056</v>
       </c>
       <c r="D13">
-        <v>1.004856286026129</v>
+        <v>0.9924182944884291</v>
       </c>
       <c r="E13">
-        <v>1.003313839533769</v>
+        <v>0.9766925282403991</v>
       </c>
       <c r="F13">
-        <v>1.009169550865784</v>
+        <v>1.005039120571428</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039957090674174</v>
+        <v>1.045067978463832</v>
       </c>
       <c r="J13">
-        <v>1.018046393798381</v>
+        <v>0.9960514992725404</v>
       </c>
       <c r="K13">
-        <v>1.019847311552397</v>
+        <v>1.007647676310947</v>
       </c>
       <c r="L13">
-        <v>1.018334004265734</v>
+        <v>0.9922347252575301</v>
       </c>
       <c r="M13">
-        <v>1.024079709074244</v>
+        <v>1.020026699816192</v>
       </c>
       <c r="N13">
-        <v>1.019492136449128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.000525825525893</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.025528681096126</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.016545793887347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9899103612937117</v>
+        <v>0.9664297113652054</v>
       </c>
       <c r="D14">
-        <v>1.006822783518875</v>
+        <v>0.9937401075855252</v>
       </c>
       <c r="E14">
-        <v>1.00516052040148</v>
+        <v>0.9781188921415278</v>
       </c>
       <c r="F14">
-        <v>1.011175016111704</v>
+        <v>1.006422518979472</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040541278670885</v>
+        <v>1.045242892385548</v>
       </c>
       <c r="J14">
-        <v>1.019745253017797</v>
+        <v>0.9973067138867197</v>
       </c>
       <c r="K14">
-        <v>1.021633970632897</v>
+        <v>1.008798175071138</v>
       </c>
       <c r="L14">
-        <v>1.020002610721674</v>
+        <v>0.9934831260602947</v>
       </c>
       <c r="M14">
-        <v>1.025905917494287</v>
+        <v>1.02124113525884</v>
       </c>
       <c r="N14">
-        <v>1.021193408243498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.001095900824186</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.026663803005841</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.017360733866996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9911930662599924</v>
+        <v>0.9672510681476203</v>
       </c>
       <c r="D15">
-        <v>1.008024951166171</v>
+        <v>0.994372085481572</v>
       </c>
       <c r="E15">
-        <v>1.006289484288099</v>
+        <v>0.9788072634037676</v>
       </c>
       <c r="F15">
-        <v>1.012401059513182</v>
+        <v>1.007041948516138</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040898014649924</v>
+        <v>1.045314637784576</v>
       </c>
       <c r="J15">
-        <v>1.020783532278251</v>
+        <v>0.9978929075107515</v>
       </c>
       <c r="K15">
-        <v>1.022726003371958</v>
+        <v>1.009328399496408</v>
       </c>
       <c r="L15">
-        <v>1.02102248296967</v>
+        <v>0.9940660037525667</v>
       </c>
       <c r="M15">
-        <v>1.027022188941258</v>
+        <v>1.021761078217978</v>
       </c>
       <c r="N15">
-        <v>1.022233161979595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.001341789082258</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027112642982097</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.017741650492083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9985076373119595</v>
+        <v>0.97118712569418</v>
       </c>
       <c r="D16">
-        <v>1.014884270499055</v>
+        <v>0.9972733657991245</v>
       </c>
       <c r="E16">
-        <v>1.012731720593837</v>
+        <v>0.98200394783557</v>
       </c>
       <c r="F16">
-        <v>1.019397416504653</v>
+        <v>1.009712757106343</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042927501323497</v>
+        <v>1.045583797801585</v>
       </c>
       <c r="J16">
-        <v>1.026703615577232</v>
+        <v>1.000511841376095</v>
       </c>
       <c r="K16">
-        <v>1.028953982226695</v>
+        <v>1.011655202522814</v>
       </c>
       <c r="L16">
-        <v>1.026838828834756</v>
+        <v>0.9966682517888603</v>
       </c>
       <c r="M16">
-        <v>1.033389383323039</v>
+        <v>1.023872662286463</v>
       </c>
       <c r="N16">
-        <v>1.028161652475902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.002325492707828</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028742554997699</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.019390082889003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002969995429966</v>
+        <v>0.9733413037553404</v>
       </c>
       <c r="D17">
-        <v>1.019072216947518</v>
+        <v>0.99880865468288</v>
       </c>
       <c r="E17">
-        <v>1.016665498643763</v>
+        <v>0.9837121336288112</v>
       </c>
       <c r="F17">
-        <v>1.023669734886857</v>
+        <v>1.01103303998534</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044161303690888</v>
+        <v>1.045694659579702</v>
       </c>
       <c r="J17">
-        <v>1.030314517595037</v>
+        <v>1.001863939356442</v>
       </c>
       <c r="K17">
-        <v>1.032753905498489</v>
+        <v>1.012837604792032</v>
       </c>
       <c r="L17">
-        <v>1.030387497633065</v>
+        <v>0.9980119051824566</v>
       </c>
       <c r="M17">
-        <v>1.037275097001924</v>
+        <v>1.024850346518706</v>
       </c>
       <c r="N17">
-        <v>1.031777682388748</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.002781621058535</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029385130903565</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.020228756308622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005530176066226</v>
+        <v>0.9741377258492797</v>
       </c>
       <c r="D18">
-        <v>1.021476085794379</v>
+        <v>0.9992693303164248</v>
       </c>
       <c r="E18">
-        <v>1.018923631580341</v>
+        <v>0.9842686956211814</v>
       </c>
       <c r="F18">
-        <v>1.026122285142612</v>
+        <v>1.011254063322364</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044867570834186</v>
+        <v>1.045678103250875</v>
       </c>
       <c r="J18">
-        <v>1.032385875780133</v>
+        <v>1.002214685419853</v>
       </c>
       <c r="K18">
-        <v>1.034934132372022</v>
+        <v>1.013100688001068</v>
       </c>
       <c r="L18">
-        <v>1.032423522083896</v>
+        <v>0.9983646116606221</v>
       </c>
       <c r="M18">
-        <v>1.039504849652224</v>
+        <v>1.024881323969844</v>
       </c>
       <c r="N18">
-        <v>1.033851982140056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.002809168445549</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.029169485507869</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.020402881081942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006396140461951</v>
+        <v>0.9737836015127511</v>
       </c>
       <c r="D19">
-        <v>1.022289363675986</v>
+        <v>0.9988301680652595</v>
       </c>
       <c r="E19">
-        <v>1.019687628987509</v>
+        <v>0.9838601467937471</v>
       </c>
       <c r="F19">
-        <v>1.026952075635609</v>
+        <v>1.010539388905205</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04510618530147</v>
+        <v>1.045559523360517</v>
       </c>
       <c r="J19">
-        <v>1.033086440237691</v>
+        <v>1.001734312232662</v>
       </c>
       <c r="K19">
-        <v>1.035671592136848</v>
+        <v>1.012604472895033</v>
       </c>
       <c r="L19">
-        <v>1.033112197443927</v>
+        <v>0.997897339945486</v>
       </c>
       <c r="M19">
-        <v>1.04025911265678</v>
+        <v>1.024115064031262</v>
       </c>
       <c r="N19">
-        <v>1.0345535414795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.002497339027879</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.028234162571538</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.02005856393186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002495695128836</v>
+        <v>0.9701191849473495</v>
       </c>
       <c r="D20">
-        <v>1.018626964958518</v>
+        <v>0.9957924367231473</v>
       </c>
       <c r="E20">
-        <v>1.016247252601807</v>
+        <v>0.9806668520659878</v>
       </c>
       <c r="F20">
-        <v>1.023215486421864</v>
+        <v>1.007181671682644</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044030329363707</v>
+        <v>1.045151935044051</v>
       </c>
       <c r="J20">
-        <v>1.029930749747451</v>
+        <v>0.9988526226660711</v>
       </c>
       <c r="K20">
-        <v>1.032350002735582</v>
+        <v>1.009909676753003</v>
       </c>
       <c r="L20">
-        <v>1.030010305700138</v>
+        <v>0.9950583890989991</v>
       </c>
       <c r="M20">
-        <v>1.036862043776818</v>
+        <v>1.021099404682093</v>
       </c>
       <c r="N20">
-        <v>1.031393369546801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.001195846957183</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.025312541992258</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.018157193003193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9892945213755414</v>
+        <v>0.9624620116042679</v>
       </c>
       <c r="D21">
-        <v>1.006245685418236</v>
+        <v>0.9900584640440878</v>
       </c>
       <c r="E21">
-        <v>1.004618575162014</v>
+        <v>0.9743697307567967</v>
       </c>
       <c r="F21">
-        <v>1.010586471077957</v>
+        <v>1.001776158687026</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040369921845032</v>
+        <v>1.044576514813143</v>
       </c>
       <c r="J21">
-        <v>1.019246754833453</v>
+        <v>0.9936175640786956</v>
       </c>
       <c r="K21">
-        <v>1.021109689671642</v>
+        <v>1.005230661794864</v>
       </c>
       <c r="L21">
-        <v>1.019512972357147</v>
+        <v>0.9898535082129071</v>
       </c>
       <c r="M21">
-        <v>1.025370017361796</v>
+        <v>1.01672395914934</v>
       </c>
       <c r="N21">
-        <v>1.020694202134554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9991424525755791</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.021808033687728</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.014852148291224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9805478260085937</v>
+        <v>0.9575337123345811</v>
       </c>
       <c r="D22">
-        <v>0.998054530857701</v>
+        <v>0.9863851596798786</v>
       </c>
       <c r="E22">
-        <v>0.9969272061838756</v>
+        <v>0.9703303835403264</v>
       </c>
       <c r="F22">
-        <v>1.002233829317095</v>
+        <v>0.998344983949396</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037930634548732</v>
+        <v>1.044195434129959</v>
       </c>
       <c r="J22">
-        <v>1.012166190080406</v>
+        <v>0.9902579557199284</v>
       </c>
       <c r="K22">
-        <v>1.013664626640697</v>
+        <v>1.002231241669333</v>
       </c>
       <c r="L22">
-        <v>1.012559782483989</v>
+        <v>0.9865134399484462</v>
       </c>
       <c r="M22">
-        <v>1.017761163120895</v>
+        <v>1.013949298482322</v>
       </c>
       <c r="N22">
-        <v>1.013603582167404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9978262653898875</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.01961201326438</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.012717450516856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9852303359003528</v>
+        <v>0.9601231817926614</v>
       </c>
       <c r="D23">
-        <v>1.002438399116168</v>
+        <v>0.9883044901045335</v>
       </c>
       <c r="E23">
-        <v>1.001043394131171</v>
+        <v>0.9724470430311036</v>
       </c>
       <c r="F23">
-        <v>1.006703898637544</v>
+        <v>1.000142033375774</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039237745289153</v>
+        <v>1.044395961769924</v>
       </c>
       <c r="J23">
-        <v>1.015956828593825</v>
+        <v>0.9920129330522282</v>
       </c>
       <c r="K23">
-        <v>1.017650009657253</v>
+        <v>1.003792976213177</v>
       </c>
       <c r="L23">
-        <v>1.016281876509178</v>
+        <v>0.9882588315316518</v>
       </c>
       <c r="M23">
-        <v>1.021833947496599</v>
+        <v>1.015397930812503</v>
       </c>
       <c r="N23">
-        <v>1.017399603822305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9985094934042871</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.020758542175841</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.013811806779455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002710142138987</v>
+        <v>0.9700742862380564</v>
       </c>
       <c r="D24">
-        <v>1.018828274768773</v>
+        <v>0.9957195415829079</v>
       </c>
       <c r="E24">
-        <v>1.016436351851424</v>
+        <v>0.980608663311204</v>
       </c>
       <c r="F24">
-        <v>1.023420862984642</v>
+        <v>1.00707944735606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044089552222698</v>
+        <v>1.045134951404935</v>
       </c>
       <c r="J24">
-        <v>1.030104265014052</v>
+        <v>0.9987750397819936</v>
       </c>
       <c r="K24">
-        <v>1.032532620358253</v>
+        <v>1.009822246177287</v>
       </c>
       <c r="L24">
-        <v>1.030180846622642</v>
+        <v>0.9949850907744455</v>
       </c>
       <c r="M24">
-        <v>1.037048797679666</v>
+        <v>1.020983370199353</v>
       </c>
       <c r="N24">
-        <v>1.031567131224983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.001145188773879</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.025179154028746</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.018067300180646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021340798462015</v>
+        <v>0.981047117414192</v>
       </c>
       <c r="D25">
-        <v>1.036339350631929</v>
+        <v>1.003937932047944</v>
       </c>
       <c r="E25">
-        <v>1.0328880994978</v>
+        <v>0.9896429798737755</v>
       </c>
       <c r="F25">
-        <v>1.041290950890277</v>
+        <v>1.014769883326449</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049199855930597</v>
+        <v>1.045876394719256</v>
       </c>
       <c r="J25">
-        <v>1.045170702266389</v>
+        <v>1.006229600797717</v>
       </c>
       <c r="K25">
-        <v>1.048398570389209</v>
+        <v>1.016475422731391</v>
       </c>
       <c r="L25">
-        <v>1.0449964549144</v>
+        <v>1.002404231523014</v>
       </c>
       <c r="M25">
-        <v>1.053280392853229</v>
+        <v>1.027143162340369</v>
       </c>
       <c r="N25">
-        <v>1.046654964546363</v>
+        <v>1.004040200669179</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.030054305757277</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.022768700874551</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9892991808996929</v>
+        <v>0.9919611175602925</v>
       </c>
       <c r="D2">
-        <v>1.010121123285443</v>
+        <v>1.01236088291579</v>
       </c>
       <c r="E2">
-        <v>0.9964494832584748</v>
+        <v>0.9989419210300706</v>
       </c>
       <c r="F2">
-        <v>1.020567375092901</v>
+        <v>1.022464233371764</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046366845954503</v>
+        <v>1.046617568216951</v>
       </c>
       <c r="J2">
-        <v>1.011804731255983</v>
+        <v>1.014384957877285</v>
       </c>
       <c r="K2">
-        <v>1.021441232853523</v>
+        <v>1.023650655672024</v>
       </c>
       <c r="L2">
-        <v>1.007958505050291</v>
+        <v>1.010416016281434</v>
       </c>
       <c r="M2">
-        <v>1.031747421259021</v>
+        <v>1.033619231492894</v>
       </c>
       <c r="N2">
-        <v>1.006184868369534</v>
+        <v>1.009997608166515</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.033698312287123</v>
+        <v>1.035179737182445</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.026230786933144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.02780200281321</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017689237929575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9951349562248993</v>
+        <v>0.9971148959712075</v>
       </c>
       <c r="D3">
-        <v>1.014523513024085</v>
+        <v>1.016062415771325</v>
       </c>
       <c r="E3">
-        <v>1.001281591740281</v>
+        <v>1.003158145515605</v>
       </c>
       <c r="F3">
-        <v>1.024686055609122</v>
+        <v>1.026050607506413</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046677571785442</v>
+        <v>1.04687407164295</v>
       </c>
       <c r="J3">
-        <v>1.015759131636747</v>
+        <v>1.017684522029749</v>
       </c>
       <c r="K3">
-        <v>1.024973875094439</v>
+        <v>1.026493818712401</v>
       </c>
       <c r="L3">
-        <v>1.011898100583103</v>
+        <v>1.013750776138419</v>
       </c>
       <c r="M3">
-        <v>1.035012524276382</v>
+        <v>1.036360672588941</v>
       </c>
       <c r="N3">
-        <v>1.007706635752281</v>
+        <v>1.010992209949678</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.036282442362802</v>
+        <v>1.037349416851946</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.028726054995666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.029809436369873</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018427415206431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9988216900327599</v>
+        <v>1.000380190597218</v>
       </c>
       <c r="D4">
-        <v>1.017311431496286</v>
+        <v>1.018413956930902</v>
       </c>
       <c r="E4">
-        <v>1.004339450860281</v>
+        <v>1.005835085507118</v>
       </c>
       <c r="F4">
-        <v>1.027292877605373</v>
+        <v>1.028327414331133</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046855294958931</v>
+        <v>1.047018357720988</v>
       </c>
       <c r="J4">
-        <v>1.018255585201549</v>
+        <v>1.019774176057931</v>
       </c>
       <c r="K4">
-        <v>1.027205317772354</v>
+        <v>1.028295107610859</v>
       </c>
       <c r="L4">
-        <v>1.014385783164451</v>
+        <v>1.015863592654026</v>
       </c>
       <c r="M4">
-        <v>1.037072693532546</v>
+        <v>1.038095563374641</v>
       </c>
       <c r="N4">
-        <v>1.008664515371778</v>
+        <v>1.011620628081227</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.03791293594384</v>
+        <v>1.038722471303267</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.030304836274874</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031084120327703</v>
+      </c>
+      <c r="S4">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T4">
+        <v>1.018891505970367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000360948530785</v>
+        <v>1.001744960943838</v>
       </c>
       <c r="D5">
-        <v>1.018479896384908</v>
+        <v>1.019401194079306</v>
       </c>
       <c r="E5">
-        <v>1.005618446728774</v>
+        <v>1.006956242870313</v>
       </c>
       <c r="F5">
-        <v>1.028383549363172</v>
+        <v>1.029281289240159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04692551856917</v>
+        <v>1.04707472210453</v>
       </c>
       <c r="J5">
-        <v>1.019300336048472</v>
+        <v>1.020650009714497</v>
       </c>
       <c r="K5">
-        <v>1.028141146294966</v>
+        <v>1.029052094701323</v>
       </c>
       <c r="L5">
-        <v>1.015426620794172</v>
+        <v>1.016748918418154</v>
       </c>
       <c r="M5">
-        <v>1.0379347417508</v>
+        <v>1.038822633801728</v>
       </c>
       <c r="N5">
-        <v>1.009065808391248</v>
+        <v>1.011884440679221</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038595191444563</v>
+        <v>1.039297899990271</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.030973824864652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.031627348437063</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019086668320949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000630169956607</v>
+        <v>1.001982969357431</v>
       </c>
       <c r="D6">
-        <v>1.018687905924042</v>
+        <v>1.019576983734933</v>
       </c>
       <c r="E6">
-        <v>1.005843576607091</v>
+        <v>1.00715304921305</v>
       </c>
       <c r="F6">
-        <v>1.028575878160699</v>
+        <v>1.02944921909296</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046938270978361</v>
+        <v>1.047084950962887</v>
       </c>
       <c r="J6">
-        <v>1.01948658318324</v>
+        <v>1.020805998600628</v>
       </c>
       <c r="K6">
-        <v>1.028310035527066</v>
+        <v>1.029189173445023</v>
       </c>
       <c r="L6">
-        <v>1.015611727000871</v>
+        <v>1.016906102349893</v>
       </c>
       <c r="M6">
-        <v>1.038088647965617</v>
+        <v>1.038952453809346</v>
       </c>
       <c r="N6">
-        <v>1.009138683920576</v>
+        <v>1.011932370977533</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038716998207128</v>
+        <v>1.039400643986492</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.031102097374095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.031733987828719</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019123176803226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988748609090647</v>
+        <v>1.000438523306619</v>
       </c>
       <c r="D7">
-        <v>1.017361347691794</v>
+        <v>1.018466877136137</v>
       </c>
       <c r="E7">
-        <v>1.00438735080615</v>
+        <v>1.005888203125202</v>
       </c>
       <c r="F7">
-        <v>1.027334633456051</v>
+        <v>1.028372367677099</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046859763256181</v>
+        <v>1.047023321240588</v>
       </c>
       <c r="J7">
-        <v>1.01830129046851</v>
+        <v>1.019824931676282</v>
       </c>
       <c r="K7">
-        <v>1.027251723961197</v>
+        <v>1.028344488974378</v>
       </c>
       <c r="L7">
-        <v>1.014430127441654</v>
+        <v>1.015913100651174</v>
       </c>
       <c r="M7">
-        <v>1.03711108333044</v>
+        <v>1.038137119728662</v>
       </c>
       <c r="N7">
-        <v>1.008685864468851</v>
+        <v>1.011665850644578</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.037943319003831</v>
+        <v>1.038755360451816</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03035802008608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031141386156945</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.01890902357108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9913329682325828</v>
+        <v>0.9937940320460549</v>
       </c>
       <c r="D8">
-        <v>1.011666088568036</v>
+        <v>1.013692268788897</v>
       </c>
       <c r="E8">
-        <v>0.9981373953132656</v>
+        <v>1.000450963219933</v>
       </c>
       <c r="F8">
-        <v>1.022006990685317</v>
+        <v>1.023744844147786</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046481326040338</v>
+        <v>1.046716696805229</v>
       </c>
       <c r="J8">
-        <v>1.013195605116205</v>
+        <v>1.015583800734754</v>
       </c>
       <c r="K8">
-        <v>1.022690320448629</v>
+        <v>1.024689909537759</v>
       </c>
       <c r="L8">
-        <v>1.009342656015446</v>
+        <v>1.011624829385288</v>
       </c>
       <c r="M8">
-        <v>1.032896891422193</v>
+        <v>1.034612502553681</v>
       </c>
       <c r="N8">
-        <v>1.006725764394918</v>
+        <v>1.01044630171421</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03460804895573</v>
+        <v>1.035965850052547</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.027137302046636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.028562365318786</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.017968905510435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9772566715589686</v>
+        <v>0.9814334897921568</v>
       </c>
       <c r="D9">
-        <v>1.001078598937122</v>
+        <v>1.004844322091731</v>
       </c>
       <c r="E9">
-        <v>0.9865110741422176</v>
+        <v>0.9903719764106357</v>
       </c>
       <c r="F9">
-        <v>1.012101643535509</v>
+        <v>1.015170719031533</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045627629914965</v>
+        <v>1.046000087891673</v>
       </c>
       <c r="J9">
-        <v>1.003638933813695</v>
+        <v>1.00765935637055</v>
       </c>
       <c r="K9">
-        <v>1.014154200831668</v>
+        <v>1.017859289470701</v>
       </c>
       <c r="L9">
-        <v>0.9998268577817832</v>
+        <v>1.003623217240263</v>
       </c>
       <c r="M9">
-        <v>1.025001384514694</v>
+        <v>1.028022365260042</v>
       </c>
       <c r="N9">
-        <v>1.003028697718469</v>
+        <v>1.008057993540715</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.028359205094394</v>
+        <v>1.030750145849837</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.021098209585558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.023729025491455</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.016172959480747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.967466485745302</v>
+        <v>0.9729454732804521</v>
       </c>
       <c r="D10">
-        <v>0.9937945713025107</v>
+        <v>0.9988488224063917</v>
       </c>
       <c r="E10">
-        <v>0.9784806556396809</v>
+        <v>0.9835143147834409</v>
       </c>
       <c r="F10">
-        <v>1.00533439271776</v>
+        <v>1.00940221399325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044960172609112</v>
+        <v>1.045436394575481</v>
       </c>
       <c r="J10">
-        <v>0.9970331130146861</v>
+        <v>1.002275190877037</v>
       </c>
       <c r="K10">
-        <v>1.008276777920629</v>
+        <v>1.013238892873772</v>
       </c>
       <c r="L10">
-        <v>0.9932496310940467</v>
+        <v>0.9981877424824153</v>
       </c>
       <c r="M10">
-        <v>1.019607996407275</v>
+        <v>1.02360375858615</v>
       </c>
       <c r="N10">
-        <v>1.000480140328741</v>
+        <v>1.00656113802297</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.024142962208162</v>
+        <v>1.027305203294874</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.01695949422492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.020480843693169</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.014961933645876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9643313378394542</v>
+        <v>0.9701755390631244</v>
       </c>
       <c r="D11">
-        <v>0.9917387621843452</v>
+        <v>0.997156609841401</v>
       </c>
       <c r="E11">
-        <v>0.9760816608310645</v>
+        <v>0.9814348195682804</v>
       </c>
       <c r="F11">
-        <v>1.003837713997719</v>
+        <v>1.008180848798208</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044856255437012</v>
+        <v>1.045348566074953</v>
       </c>
       <c r="J11">
-        <v>0.9952671248698414</v>
+        <v>1.000843927458273</v>
       </c>
       <c r="K11">
-        <v>1.006818173295457</v>
+        <v>1.012132348288512</v>
       </c>
       <c r="L11">
-        <v>0.9914691918114812</v>
+        <v>0.9967155511994401</v>
       </c>
       <c r="M11">
-        <v>1.018687617747567</v>
+        <v>1.022950117953483</v>
       </c>
       <c r="N11">
-        <v>0.9999609190380718</v>
+        <v>1.006479526779471</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023858270558362</v>
+        <v>1.02722986050641</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.015961835862802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.01973523862685</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.014793925820282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9636197823555747</v>
+        <v>0.9694757262386376</v>
       </c>
       <c r="D12">
-        <v>0.9914032299144885</v>
+        <v>0.9968429337024783</v>
       </c>
       <c r="E12">
-        <v>0.9756310972697574</v>
+        <v>0.9809838090034215</v>
       </c>
       <c r="F12">
-        <v>1.00383767033927</v>
+        <v>1.008187491475371</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044898790576162</v>
+        <v>1.045379815427525</v>
       </c>
       <c r="J12">
-        <v>0.9950478110331489</v>
+        <v>1.000630563010885</v>
       </c>
       <c r="K12">
-        <v>1.006697004813694</v>
+        <v>1.012030869098791</v>
       </c>
       <c r="L12">
-        <v>0.9912405479686398</v>
+        <v>0.9964846282692038</v>
       </c>
       <c r="M12">
-        <v>1.018891714130038</v>
+        <v>1.023159495332256</v>
       </c>
       <c r="N12">
-        <v>1.000011349054661</v>
+        <v>1.006609250845607</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024351058437076</v>
+        <v>1.027725651631009</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.015876161568069</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.019663488286111</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01486020213049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9647761872405056</v>
+        <v>0.970341449258958</v>
       </c>
       <c r="D13">
-        <v>0.9924182944884291</v>
+        <v>0.9975913644954677</v>
       </c>
       <c r="E13">
-        <v>0.9766925282403991</v>
+        <v>0.9817689180681087</v>
       </c>
       <c r="F13">
-        <v>1.005039120571428</v>
+        <v>1.00916591118087</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045067978463832</v>
+        <v>1.045513347712682</v>
       </c>
       <c r="J13">
-        <v>0.9960514992725404</v>
+        <v>1.001358865321835</v>
       </c>
       <c r="K13">
-        <v>1.007647676310947</v>
+        <v>1.012720666540123</v>
       </c>
       <c r="L13">
-        <v>0.9922347252575301</v>
+        <v>0.997208694978568</v>
       </c>
       <c r="M13">
-        <v>1.020026699816192</v>
+        <v>1.024076137247934</v>
       </c>
       <c r="N13">
-        <v>1.000525825525893</v>
+        <v>1.006881855454425</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.025528681096126</v>
+        <v>1.028729804958918</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.016545793887347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.020148415604427</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.015119790680278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9664297113652054</v>
+        <v>0.9716582672468412</v>
       </c>
       <c r="D14">
-        <v>0.9937401075855252</v>
+        <v>0.9985990612886698</v>
       </c>
       <c r="E14">
-        <v>0.9781188921415278</v>
+        <v>0.9828807161494353</v>
       </c>
       <c r="F14">
-        <v>1.006422518979472</v>
+        <v>1.010292231972929</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045242892385548</v>
+        <v>1.045653084504877</v>
       </c>
       <c r="J14">
-        <v>0.9973067138867197</v>
+        <v>1.00229696387968</v>
       </c>
       <c r="K14">
-        <v>1.008798175071138</v>
+        <v>1.013564449325079</v>
       </c>
       <c r="L14">
-        <v>0.9934831260602947</v>
+        <v>0.9981502666891457</v>
       </c>
       <c r="M14">
-        <v>1.02124113525884</v>
+        <v>1.025039345238547</v>
       </c>
       <c r="N14">
-        <v>1.001095900824186</v>
+        <v>1.007139975592594</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026663803005841</v>
+        <v>1.029665918271972</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.017360733866996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.020746602272338</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.015390463508711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9672510681476203</v>
+        <v>0.9723321037217171</v>
       </c>
       <c r="D15">
-        <v>0.994372085481572</v>
+        <v>0.9990915304028879</v>
       </c>
       <c r="E15">
-        <v>0.9788072634037676</v>
+        <v>0.9834330233453261</v>
       </c>
       <c r="F15">
-        <v>1.007041948516138</v>
+        <v>1.010799369343114</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045314637784576</v>
+        <v>1.045711218470575</v>
       </c>
       <c r="J15">
-        <v>0.9978929075107515</v>
+        <v>1.002744613619621</v>
       </c>
       <c r="K15">
-        <v>1.009328399496408</v>
+        <v>1.013958576477999</v>
       </c>
       <c r="L15">
-        <v>0.9940660037525667</v>
+        <v>0.9986005726360795</v>
       </c>
       <c r="M15">
-        <v>1.021761078217978</v>
+        <v>1.025449646634665</v>
       </c>
       <c r="N15">
-        <v>1.001341789082258</v>
+        <v>1.007242021176255</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027112642982097</v>
+        <v>1.030028020244966</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.017741650492083</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.021031833933705</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.015504256165925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.97118712569418</v>
+        <v>0.9756755413511254</v>
       </c>
       <c r="D16">
-        <v>0.9972733657991245</v>
+        <v>1.001418386003674</v>
       </c>
       <c r="E16">
-        <v>0.98200394783557</v>
+        <v>0.9860937655916169</v>
       </c>
       <c r="F16">
-        <v>1.009712757106343</v>
+        <v>1.013019961857599</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045583797801585</v>
+        <v>1.04593526809377</v>
       </c>
       <c r="J16">
-        <v>1.000511841376095</v>
+        <v>1.00480863014873</v>
       </c>
       <c r="K16">
-        <v>1.011655202522814</v>
+        <v>1.015725475594445</v>
       </c>
       <c r="L16">
-        <v>0.9966682517888603</v>
+        <v>1.000681293032641</v>
       </c>
       <c r="M16">
-        <v>1.023872662286463</v>
+        <v>1.027122050516566</v>
       </c>
       <c r="N16">
-        <v>1.002325492707828</v>
+        <v>1.007625556064312</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028742554997699</v>
+        <v>1.031310888590354</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.019390082889003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02228464437257</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.015943810942902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9733413037553404</v>
+        <v>0.9775680355731152</v>
       </c>
       <c r="D17">
-        <v>0.99880865468288</v>
+        <v>1.002690959031612</v>
       </c>
       <c r="E17">
-        <v>0.9837121336288112</v>
+        <v>0.987571080197241</v>
       </c>
       <c r="F17">
-        <v>1.01103303998534</v>
+        <v>1.014141426857595</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045694659579702</v>
+        <v>1.046031048376919</v>
       </c>
       <c r="J17">
-        <v>1.001863939356442</v>
+        <v>1.005916396368208</v>
       </c>
       <c r="K17">
-        <v>1.012837604792032</v>
+        <v>1.016651969927665</v>
       </c>
       <c r="L17">
-        <v>0.9980119051824566</v>
+        <v>1.001800600356563</v>
       </c>
       <c r="M17">
-        <v>1.024850346518706</v>
+        <v>1.027905967070841</v>
       </c>
       <c r="N17">
-        <v>1.002781621058535</v>
+        <v>1.007818145313531</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029385130903565</v>
+        <v>1.031800554371851</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.020228756308622</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.022942603878787</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.016143640415403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9741377258492797</v>
+        <v>0.9783449107802464</v>
       </c>
       <c r="D18">
-        <v>0.9992693303164248</v>
+        <v>1.003119220669115</v>
       </c>
       <c r="E18">
-        <v>0.9842686956211814</v>
+        <v>0.9881200637766705</v>
       </c>
       <c r="F18">
-        <v>1.011254063322364</v>
+        <v>1.014348043382813</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045678103250875</v>
+        <v>1.046022137376566</v>
       </c>
       <c r="J18">
-        <v>1.002214685419853</v>
+        <v>1.006251744115998</v>
       </c>
       <c r="K18">
-        <v>1.013100688001068</v>
+        <v>1.016884328644648</v>
       </c>
       <c r="L18">
-        <v>0.9983646116606221</v>
+        <v>1.002147060454132</v>
       </c>
       <c r="M18">
-        <v>1.024881323969844</v>
+        <v>1.027923623134543</v>
       </c>
       <c r="N18">
-        <v>1.002809168445549</v>
+        <v>1.007807806822375</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.029169485507869</v>
+        <v>1.031574888954462</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.020402881081942</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.023093896147627</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.016134799191975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9737836015127511</v>
+        <v>0.9781560693749557</v>
       </c>
       <c r="D19">
-        <v>0.9988301680652595</v>
+        <v>1.002827243676255</v>
       </c>
       <c r="E19">
-        <v>0.9838601467937471</v>
+        <v>0.9878729032347685</v>
       </c>
       <c r="F19">
-        <v>1.010539388905205</v>
+        <v>1.013760609134391</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045559523360517</v>
+        <v>1.045927978311979</v>
       </c>
       <c r="J19">
-        <v>1.001734312232662</v>
+        <v>1.00593087245588</v>
       </c>
       <c r="K19">
-        <v>1.012604472895033</v>
+        <v>1.016533070559351</v>
       </c>
       <c r="L19">
-        <v>0.997897339945486</v>
+        <v>1.001838614459751</v>
       </c>
       <c r="M19">
-        <v>1.024115064031262</v>
+        <v>1.027282677075624</v>
       </c>
       <c r="N19">
-        <v>1.002497339027879</v>
+        <v>1.007619265457117</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.028234162571538</v>
+        <v>1.030739482043378</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.02005856393186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.022852685831859</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.015959725103997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9701191849473495</v>
+        <v>0.9751918518250755</v>
       </c>
       <c r="D20">
-        <v>0.9957924367231473</v>
+        <v>1.000454348720989</v>
       </c>
       <c r="E20">
-        <v>0.9806668520659878</v>
+        <v>0.9853307502613302</v>
       </c>
       <c r="F20">
-        <v>1.007181671682644</v>
+        <v>1.010940099527979</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045151935044051</v>
+        <v>1.045594189047558</v>
       </c>
       <c r="J20">
-        <v>0.9988526226660711</v>
+        <v>1.003713756137464</v>
       </c>
       <c r="K20">
-        <v>1.009909676753003</v>
+        <v>1.014489213656391</v>
       </c>
       <c r="L20">
-        <v>0.9950583890989991</v>
+        <v>0.9996365401145612</v>
       </c>
       <c r="M20">
-        <v>1.021099404682093</v>
+        <v>1.024793270069002</v>
       </c>
       <c r="N20">
-        <v>1.001195846957183</v>
+        <v>1.006897544902914</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.025312541992258</v>
+        <v>1.028235896660175</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.018157193003193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.021411977220128</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.015296367513805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9624620116042679</v>
+        <v>0.9688055764709487</v>
       </c>
       <c r="D21">
-        <v>0.9900584640440878</v>
+        <v>0.9959360350480065</v>
       </c>
       <c r="E21">
-        <v>0.9743697307567967</v>
+        <v>0.9801968378936903</v>
       </c>
       <c r="F21">
-        <v>1.001776158687026</v>
+        <v>1.006503693737355</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044576514813143</v>
+        <v>1.04512907204754</v>
       </c>
       <c r="J21">
-        <v>0.9936175640786956</v>
+        <v>0.9996680063466756</v>
       </c>
       <c r="K21">
-        <v>1.005230661794864</v>
+        <v>1.010994811708304</v>
       </c>
       <c r="L21">
-        <v>0.9898535082129071</v>
+        <v>0.9955633572276182</v>
       </c>
       <c r="M21">
-        <v>1.01672395914934</v>
+        <v>1.021362890406641</v>
       </c>
       <c r="N21">
-        <v>0.9991424525755791</v>
+        <v>1.006112448940446</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.021808033687728</v>
+        <v>1.025479525327751</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.014852148291224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.018944900214697</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.014380209524134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9575337123345811</v>
+        <v>0.9647084522646363</v>
       </c>
       <c r="D22">
-        <v>0.9863851596798786</v>
+        <v>0.9930543676620434</v>
       </c>
       <c r="E22">
-        <v>0.9703303835403264</v>
+        <v>0.9769181822814951</v>
       </c>
       <c r="F22">
-        <v>0.998344983949396</v>
+        <v>1.003707307680349</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044195434129959</v>
+        <v>1.044820682962051</v>
       </c>
       <c r="J22">
-        <v>0.9902579557199284</v>
+        <v>0.9970797594467868</v>
       </c>
       <c r="K22">
-        <v>1.002231241669333</v>
+        <v>1.008764686114577</v>
       </c>
       <c r="L22">
-        <v>0.9865134399484462</v>
+        <v>0.9929611940671096</v>
       </c>
       <c r="M22">
-        <v>1.013949298482322</v>
+        <v>1.019205678106403</v>
       </c>
       <c r="N22">
-        <v>0.9978262653898875</v>
+        <v>1.005606185994673</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.01961201326438</v>
+        <v>1.023772197711479</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.012717450516856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.017352942954228</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.013796896715599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9601231817926614</v>
+        <v>0.966837690231674</v>
       </c>
       <c r="D23">
-        <v>0.9883044901045335</v>
+        <v>0.9945377265639453</v>
       </c>
       <c r="E23">
-        <v>0.9724470430311036</v>
+        <v>0.9786117734031941</v>
       </c>
       <c r="F23">
-        <v>1.000142033375774</v>
+        <v>1.005152323118219</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044395961769924</v>
+        <v>1.044980246756419</v>
       </c>
       <c r="J23">
-        <v>0.9920129330522282</v>
+        <v>0.9984078240661167</v>
       </c>
       <c r="K23">
-        <v>1.003792976213177</v>
+        <v>1.009902833739593</v>
       </c>
       <c r="L23">
-        <v>0.9882588315316518</v>
+        <v>0.9942962331294993</v>
       </c>
       <c r="M23">
-        <v>1.015397930812503</v>
+        <v>1.0203119352313</v>
       </c>
       <c r="N23">
-        <v>0.9985094934042871</v>
+        <v>1.005814198399491</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020758542175841</v>
+        <v>1.024647746444044</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.013811806779455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.01814686769274</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.014087290631484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9700742862380564</v>
+        <v>0.9751705731393024</v>
       </c>
       <c r="D24">
-        <v>0.9957195415829079</v>
+        <v>1.000402307522712</v>
       </c>
       <c r="E24">
-        <v>0.980608663311204</v>
+        <v>0.9852956534240002</v>
       </c>
       <c r="F24">
-        <v>1.00707944735606</v>
+        <v>1.010855859472659</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045134951404935</v>
+        <v>1.045580641252287</v>
       </c>
       <c r="J24">
-        <v>0.9987750397819936</v>
+        <v>1.003659088522104</v>
       </c>
       <c r="K24">
-        <v>1.009822246177287</v>
+        <v>1.014422361871674</v>
       </c>
       <c r="L24">
-        <v>0.9949850907744455</v>
+        <v>0.9995860101931756</v>
       </c>
       <c r="M24">
-        <v>1.020983370199353</v>
+        <v>1.024694978868622</v>
       </c>
       <c r="N24">
-        <v>1.001145188773879</v>
+        <v>1.006863366624528</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.025179154028746</v>
+        <v>1.028116701350002</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.018067300180646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.021334048570458</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.015263355869354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.981047117414192</v>
+        <v>0.9847296503153138</v>
       </c>
       <c r="D25">
-        <v>1.003937932047944</v>
+        <v>1.007210586628885</v>
       </c>
       <c r="E25">
-        <v>0.9896429798737755</v>
+        <v>0.9930570275991509</v>
       </c>
       <c r="F25">
-        <v>1.014769883326449</v>
+        <v>1.017458099322941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045876394719256</v>
+        <v>1.046208724686692</v>
       </c>
       <c r="J25">
-        <v>1.006229600797717</v>
+        <v>1.009782082283351</v>
       </c>
       <c r="K25">
-        <v>1.016475422731391</v>
+        <v>1.019697989334729</v>
       </c>
       <c r="L25">
-        <v>1.002404231523014</v>
+        <v>1.005764088997292</v>
       </c>
       <c r="M25">
-        <v>1.027143162340369</v>
+        <v>1.029791313659487</v>
       </c>
       <c r="N25">
-        <v>1.004040200669179</v>
+        <v>1.008671210996291</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.030054305757277</v>
+        <v>1.032150167775816</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.022768700874551</v>
+        <v>1.025061043162451</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.016663417710143</v>
       </c>
     </row>
   </sheetData>
